--- a/STEPS_data_analysis/excel_templates/data_fromR.xlsx
+++ b/STEPS_data_analysis/excel_templates/data_fromR.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr defaultThemeVersion="166925"/>
   <bookViews>
-    <workbookView xWindow="29060" yWindow="500" windowWidth="14220" windowHeight="20160" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="53160" yWindow="620" windowWidth="14040" windowHeight="20980" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" state="visible" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="479">
   <si>
     <t>ind_level</t>
   </si>
@@ -28,12 +28,6 @@
     <t>col2</t>
   </si>
   <si>
-    <t>Tobacco</t>
-  </si>
-  <si>
-    <t>Smoking prevalence</t>
-  </si>
-  <si>
     <t>of men</t>
   </si>
   <si>
@@ -58,21 +52,6 @@
     <t>have tried to stop smoking during the past 12 months</t>
   </si>
   <si>
-    <t>report that they are giving advice to stop smoking by a health care professional</t>
-  </si>
-  <si>
-    <t>electronic cigarettes use prevalence</t>
-  </si>
-  <si>
-    <t>prevalence of vipe 18-44</t>
-  </si>
-  <si>
-    <t>prevalence of vipe 45-69</t>
-  </si>
-  <si>
-    <t>prevalence vipe by sex:</t>
-  </si>
-  <si>
     <t>male aged 18-44 years</t>
   </si>
   <si>
@@ -83,9 +62,6 @@
   </si>
   <si>
     <t>female aged 45-69 years</t>
-  </si>
-  <si>
-    <t>current users vape daily</t>
   </si>
   <si>
     <t>Alcohol Use</t>
@@ -117,9 +93,6 @@
     <t>of women consumed 6 or more drinks on one occasion</t>
   </si>
   <si>
-    <t xml:space="preserve">Mean number of standard drinks on one occasion is </t>
-  </si>
-  <si>
     <t>The highest prevalence
 of heavy episodic drinking is among men aged
 18-44 years</t>
@@ -128,12 +101,6 @@
     <t>Diet</t>
   </si>
   <si>
-    <t xml:space="preserve">per week on average people eat fruit, with 1.3 servings consumed on average per day </t>
-  </si>
-  <si>
-    <t>per week on average people eat vegetables, with 1.4 servings con- sumed on average per day</t>
-  </si>
-  <si>
     <t>of the population eat less than 5 servings of fruit and/or vegetables per day</t>
   </si>
   <si>
@@ -146,10 +113,6 @@
     <t>of those aged 45-69 years do not eat any fruits or vegetables</t>
   </si>
   <si>
-    <t>of people always, or often,
-eat processed foods high in salt</t>
-  </si>
-  <si>
     <t>of the population always, or often, add salt or salty sauce to their food before or whilst eating</t>
   </si>
   <si>
@@ -171,9 +134,6 @@
     <t>of men are not engaging in vigorous physical activity</t>
   </si>
   <si>
-    <t>of the population do not engage in any transport related activity e.e. walk or cycle as part of commute</t>
-  </si>
-  <si>
     <t>do no work-related activity</t>
   </si>
   <si>
@@ -210,36 +170,15 @@
     <t>Raised Blood Pressure</t>
   </si>
   <si>
-    <t>have been diagnosed with raised blood pressure</t>
-  </si>
-  <si>
     <t>Of those</t>
   </si>
   <si>
     <t>of the population have stage 2 high blood pressure, including those on medication</t>
   </si>
   <si>
-    <t>previously been diagnosed not on medication</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diagnosed and  on medication, however their BP was not controlled </t>
-  </si>
-  <si>
     <t xml:space="preserve">diagnosed and  on medication, with  their BP  controlled </t>
   </si>
   <si>
-    <t>are undiagnosed</t>
-  </si>
-  <si>
-    <t>undiagnosed men</t>
-  </si>
-  <si>
-    <t>undiagnosed women</t>
-  </si>
-  <si>
-    <t>of the population either have raised blood pressure or are on medication for it.</t>
-  </si>
-  <si>
     <t>Among those 18-44 years</t>
   </si>
   <si>
@@ -249,42 +188,15 @@
     <t>Raised Blood Sugar</t>
   </si>
   <si>
-    <t>of the population were previously diagnosed with raised blood sugar or diabetes</t>
-  </si>
-  <si>
     <t>of the population report never having their blood sugar level measured</t>
   </si>
   <si>
-    <t>Among those previously diagnosed with diabetes</t>
-  </si>
-  <si>
-    <t>have received at least two HBA1C tests in the past year as part of their diabetes control</t>
-  </si>
-  <si>
-    <t>have never had an eye exam</t>
-  </si>
-  <si>
-    <t>have never had a foot exam</t>
-  </si>
-  <si>
-    <t>Among the population as a whole</t>
-  </si>
-  <si>
     <t>have raised blood glucose and on medication</t>
   </si>
   <si>
-    <t>are diagnosed and not on medication</t>
-  </si>
-  <si>
-    <t>have raised blood glucose but undiagnosed</t>
-  </si>
-  <si>
     <t>Raised Total Cholesterol</t>
   </si>
   <si>
-    <t>have never had their cholesterol measured</t>
-  </si>
-  <si>
     <t>have previously been diagnosed with raised cholesterol</t>
   </si>
   <si>
@@ -312,15 +224,6 @@
     <t>Cardiovascular Disease</t>
   </si>
   <si>
-    <t>report having had a heart attack or chest pain from heart disease (angina) or a stroke</t>
-  </si>
-  <si>
-    <t>This is higher among those aged 45-69 years</t>
-  </si>
-  <si>
-    <t>of the population aged 45-69 years report taking aspirin to prevent or treat heart disease</t>
-  </si>
-  <si>
     <t>Lifestyle Advice</t>
   </si>
   <si>
@@ -330,9 +233,6 @@
     <t>have been advised to eat five portions of fruit and vegetables a day</t>
   </si>
   <si>
-    <t>a quarter have been advised to reduce sugary drinks</t>
-  </si>
-  <si>
     <t>have received advice on lowering the salt content in their food</t>
   </si>
   <si>
@@ -348,12 +248,6 @@
     <t>Multiple Risk Factors</t>
   </si>
   <si>
-    <t>a third of our population have 3 - 5 risk factors</t>
-  </si>
-  <si>
-    <t>nearly two-thirds of the population have 1-2 risk factors</t>
-  </si>
-  <si>
     <t>of the population have 0 risk factors</t>
   </si>
   <si>
@@ -738,42 +632,12 @@
     <t>de la población tiene hipertensión etapa 2, incluidos quienes toman medicación</t>
   </si>
   <si>
-    <t>ont déjà été diagnostiqués mais ne prennent pas de traitement</t>
-  </si>
-  <si>
-    <t>previamente diagnosticados y no están tomando medicación</t>
-  </si>
-  <si>
-    <t>diagnostiqués et sous traitement, cependant leur tension artérielle n’était pas contrôlée</t>
-  </si>
-  <si>
-    <t>diagnosticados y tomando medicación, pero su presión no está controlada</t>
-  </si>
-  <si>
     <t>diagnostiqués et sous traitement, avec leur tension artérielle contrôlée</t>
   </si>
   <si>
     <t>diagnosticados y tomando medicación, con su presión controlada</t>
   </si>
   <si>
-    <t>non diagnostiqués</t>
-  </si>
-  <si>
-    <t>no han sido diagnosticados</t>
-  </si>
-  <si>
-    <t>hommes non diagnostiqués</t>
-  </si>
-  <si>
-    <t>hombres no diagnosticados</t>
-  </si>
-  <si>
-    <t>femmes non diagnostiquées</t>
-  </si>
-  <si>
-    <t>mujeres no diagnosticadas</t>
-  </si>
-  <si>
     <t>de la population présentent soit une tension artérielle élevée, soit prennent un traitement</t>
   </si>
   <si>
@@ -810,66 +674,18 @@
     <t>de la población informa no haberse medido nunca el nivel de azúcar en sangre</t>
   </si>
   <si>
-    <t>Parmi ceux déjà diagnostiqués diabétiques</t>
-  </si>
-  <si>
-    <t>Entre quienes fueron diagnosticados previamente con diabetes</t>
-  </si>
-  <si>
-    <t>ont reçu au moins deux tests HBA1C au cours de la dernière année dans le cadre du suivi du diabète</t>
-  </si>
-  <si>
-    <t>han recibido al menos dos pruebas de HbA1c en el último año como parte del control de su diabetes</t>
-  </si>
-  <si>
-    <t>n’ont jamais passé d’examen ophtalmologique</t>
-  </si>
-  <si>
-    <t>nunca han tenido un examen ocular</t>
-  </si>
-  <si>
-    <t>n’ont jamais passé d’examen des pieds</t>
-  </si>
-  <si>
-    <t>nunca han tenido un examen de pies</t>
-  </si>
-  <si>
-    <t>Parmi la population dans son ensemble</t>
-  </si>
-  <si>
-    <t>Entre la población general</t>
-  </si>
-  <si>
     <t>ont une glycémie élevée et prennent un traitement</t>
   </si>
   <si>
     <t>tienen glucosa elevada y están tomando medicación</t>
   </si>
   <si>
-    <t>sont diagnostiqués et ne prennent pas de traitement</t>
-  </si>
-  <si>
-    <t>están diagnosticados pero no toman medicación</t>
-  </si>
-  <si>
-    <t>ont une glycémie élevée mais ne sont pas diagnostiqués</t>
-  </si>
-  <si>
-    <t>tienen glucosa elevada pero no han sido diagnosticados</t>
-  </si>
-  <si>
     <t>Cholestérol total élevé</t>
   </si>
   <si>
     <t>Colesterol Total Elevado</t>
   </si>
   <si>
-    <t>n’ont jamais fait mesurer leur cholestérol</t>
-  </si>
-  <si>
-    <t>nunca se han medido el colesterol</t>
-  </si>
-  <si>
     <t>ont déjà été diagnostiqués avec un cholestérol élevé</t>
   </si>
   <si>
@@ -924,24 +740,6 @@
     <t>Enfermedad Cardiovascular</t>
   </si>
   <si>
-    <t>déclarent avoir eu une crise cardiaque ou des douleurs thoraciques liées à une maladie cardiaque (angine) ou un AVC</t>
-  </si>
-  <si>
-    <t>informan haber tenido un infarto, dolor en el pecho por enfermedad cardíaca (angina) o un accidente cerebrovascular</t>
-  </si>
-  <si>
-    <t>Ceci est plus fréquent chez les 45-69 ans</t>
-  </si>
-  <si>
-    <t>Esto es más alto entre los de 45 a 69 años</t>
-  </si>
-  <si>
-    <t>de la population âgée de 45 à 69 ans déclarent prendre de l’aspirine pour prévenir ou traiter une maladie cardiaque</t>
-  </si>
-  <si>
-    <t>de la población de 45 a 69 años informa tomar aspirina para prevenir o tratar enfermedades cardíacas</t>
-  </si>
-  <si>
     <t>Conseils de mode de vie</t>
   </si>
   <si>
@@ -1041,9 +839,6 @@
     <t>of population are current smokers</t>
   </si>
   <si>
-    <t>of current users vape daily</t>
-  </si>
-  <si>
     <t>Tobacco Use</t>
   </si>
   <si>
@@ -1059,9 +854,6 @@
     <t>tob1i1</t>
   </si>
   <si>
-    <t>tob1a1</t>
-  </si>
-  <si>
     <t>tob1i2</t>
   </si>
   <si>
@@ -1179,9 +971,6 @@
     <t>pm1gax1</t>
   </si>
   <si>
-    <t>bm1d1</t>
-  </si>
-  <si>
     <t>of the population have 3 - 5 risk factors</t>
   </si>
   <si>
@@ -1260,22 +1049,184 @@
     <t>Entre los fumadores actuales</t>
   </si>
   <si>
-    <t>pm1c1</t>
-  </si>
-  <si>
-    <t>bp1a1</t>
-  </si>
-  <si>
-    <t>bm1f</t>
-  </si>
-  <si>
     <t>db1a1</t>
   </si>
   <si>
-    <t xml:space="preserve">Tobacco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smoking prevalence</t>
+    <t>tob1z1</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">report that they </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>have been advised</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to stop smoking by a health care professional</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">prevalence of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>current users of smokeless tobacco</t>
+    </r>
+  </si>
+  <si>
+    <t>prevalence of smokeless tobacco 18-44</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>prevalence of smokeless tpbacco  45-69</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>use smokeless tobacco daily</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prevalence smokeless tobacco by sex: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean number of standard drinks on one occasion among current drinkers is </t>
+  </si>
+  <si>
+    <t>mean number of days fruits are consumed in a typical week</t>
+  </si>
+  <si>
+    <t>mean number of days vegetables consumed in a typical week</t>
+  </si>
+  <si>
+    <t>of the population do not engage in any transport related activity e.g. walk or cycle as part of commute</t>
+  </si>
+  <si>
+    <t>have been diagnosed with raised BP or currently on medication for raised BP</t>
+  </si>
+  <si>
+    <t>pm1g1</t>
+  </si>
+  <si>
+    <t>of the population either have raised blood pressure or are on medication for it (HTN treatment).</t>
+  </si>
+  <si>
+    <t>bm1e1</t>
+  </si>
+  <si>
+    <t>of the population were previously diagnosed among those with raised blood sugar or currently on medication for diabetes</t>
+  </si>
+  <si>
+    <t>bm1n1</t>
+  </si>
+  <si>
+    <t>bm1o1</t>
+  </si>
+  <si>
+    <t>bm1j1</t>
+  </si>
+  <si>
+    <t>bm1l1</t>
+  </si>
+  <si>
+    <t>bm1k1</t>
+  </si>
+  <si>
+    <t>bm1m1</t>
+  </si>
+  <si>
+    <t>have less than ten percent of a 10-year CVD risk</t>
+  </si>
+  <si>
+    <t>have a 10-year CVD risk ≥20% or with existing CVD</t>
+  </si>
+  <si>
+    <t>of eligible persons receiving drug therapy and counselling to prevent heart attacks and strokes</t>
+  </si>
+  <si>
+    <t>cvd1riska1</t>
+  </si>
+  <si>
+    <t>cvd1riskb1</t>
+  </si>
+  <si>
+    <t>cvd1riskc1</t>
+  </si>
+  <si>
+    <t>avoir un risque cardiovasculaire à 10 ans inférieur à dix pour cent</t>
+  </si>
+  <si>
+    <t>avoir un risque cardiovasculaire à 10 ans ≥20 % ou une maladie cardiovasculaire existante</t>
+  </si>
+  <si>
+    <t>des personnes admissibles recevant un traitement médicamenteux et des conseils pour prévenir les crises cardiaques et les AVC</t>
+  </si>
+  <si>
+    <t>tener un riesgo cardiovascular a 10 años inferior al diez por ciento</t>
+  </si>
+  <si>
+    <t>tener un riesgo cardiovascular a 10 años ≥20 % o una enfermedad cardiovascular existente</t>
+  </si>
+  <si>
+    <t>de las personas elegibles que reciben tratamiento farmacológico y asesoramiento para prevenir infartos y accidentes cerebrovasculares</t>
+  </si>
+  <si>
+    <t>of population are  smokers</t>
+  </si>
+  <si>
+    <t>bm1f1</t>
+  </si>
+  <si>
+    <t>bm18d1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tobacco Use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">of population are current smokers</t>
   </si>
   <si>
     <t xml:space="preserve">of men</t>
@@ -1305,19 +1256,16 @@
     <t xml:space="preserve">have tried to stop smoking during the past 12 months</t>
   </si>
   <si>
-    <t xml:space="preserve">report that they are giving advice to stop smoking by a health care professional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">electronic cigarettes use prevalence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prevalence of vipe 18-44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prevalence of vipe 45-69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prevalence vipe by sex:</t>
+    <t xml:space="preserve">report that they have been advised to stop smoking by a health care professional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prevalence of current users of smokeless tobacco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prevalence of smokeless tobacco 18-44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prevalence of smokeless tpbacco  45-69 </t>
   </si>
   <si>
     <t xml:space="preserve">male aged 18-44 years</t>
@@ -1332,7 +1280,7 @@
     <t xml:space="preserve">female aged 45-69 years</t>
   </si>
   <si>
-    <t xml:space="preserve">current users vape daily</t>
+    <t xml:space="preserve">use smokeless tobacco daily</t>
   </si>
   <si>
     <t xml:space="preserve">Alcohol Use</t>
@@ -1372,7 +1320,10 @@
     <t xml:space="preserve">Diet</t>
   </si>
   <si>
-    <t xml:space="preserve">per week on average people eat vegetables, with 1.4 servings con- sumed on average per day</t>
+    <t xml:space="preserve">mean number of days fruits are consumed in a typical week</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean number of days vegetables consumed in a typical week</t>
   </si>
   <si>
     <t xml:space="preserve">of the population eat less than 5 servings of fruit and/or vegetables per day</t>
@@ -1387,8 +1338,7 @@
     <t xml:space="preserve">of those aged 45-69 years do not eat any fruits or vegetables</t>
   </si>
   <si>
-    <t xml:space="preserve">of people always, or often,
-eat processed foods high in salt</t>
+    <t xml:space="preserve">of people always, or often, eat processed foods high in salt</t>
   </si>
   <si>
     <t xml:space="preserve">of the population always, or often, add salt or salty sauce to their food before or whilst eating</t>
@@ -1412,7 +1362,7 @@
     <t xml:space="preserve">of men are not engaging in vigorous physical activity</t>
   </si>
   <si>
-    <t xml:space="preserve">of the population do not engage in any transport related activity e.e. walk or cycle as part of commute</t>
+    <t xml:space="preserve">of the population do not engage in any transport related activity e.g. walk or cycle as part of commute</t>
   </si>
   <si>
     <t xml:space="preserve">do no work-related activity</t>
@@ -1451,7 +1401,7 @@
     <t xml:space="preserve">Raised Blood Pressure</t>
   </si>
   <si>
-    <t xml:space="preserve">have been diagnosed with raised blood pressure</t>
+    <t xml:space="preserve">have been diagnosed with raised BP or currently on medication for raised BP</t>
   </si>
   <si>
     <t xml:space="preserve">Of those</t>
@@ -1460,19 +1410,7 @@
     <t xml:space="preserve">of the population have stage 2 high blood pressure, including those on medication</t>
   </si>
   <si>
-    <t xml:space="preserve">previously been diagnosed not on medication</t>
-  </si>
-  <si>
-    <t xml:space="preserve">are undiagnosed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">undiagnosed men</t>
-  </si>
-  <si>
-    <t xml:space="preserve">undiagnosed women</t>
-  </si>
-  <si>
-    <t xml:space="preserve">of the population either have raised blood pressure or are on medication for it.</t>
+    <t xml:space="preserve">of the population either have raised blood pressure or are on medication for it (HTN treatment).</t>
   </si>
   <si>
     <t xml:space="preserve">Among those 18-44 years</t>
@@ -1484,42 +1422,18 @@
     <t xml:space="preserve">Raised Blood Sugar</t>
   </si>
   <si>
-    <t xml:space="preserve">of the population were previously diagnosed with raised blood sugar or diabetes</t>
+    <t xml:space="preserve">of the population were previously diagnosed among those with raised blood sugar or currently on medication for diabetes</t>
   </si>
   <si>
     <t xml:space="preserve">of the population report never having their blood sugar level measured</t>
   </si>
   <si>
-    <t xml:space="preserve">Among those previously diagnosed with diabetes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">have received at least two HBA1C tests in the past year as part of their diabetes control</t>
-  </si>
-  <si>
-    <t xml:space="preserve">have never had an eye exam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">have never had a foot exam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Among the population as a whole</t>
-  </si>
-  <si>
     <t xml:space="preserve">have raised blood glucose and on medication</t>
   </si>
   <si>
-    <t xml:space="preserve">are diagnosed and not on medication</t>
-  </si>
-  <si>
-    <t xml:space="preserve">have raised blood glucose but undiagnosed</t>
-  </si>
-  <si>
     <t xml:space="preserve">Raised Total Cholesterol</t>
   </si>
   <si>
-    <t xml:space="preserve">have never had their cholesterol measured</t>
-  </si>
-  <si>
     <t xml:space="preserve">have previously been diagnosed with raised cholesterol</t>
   </si>
   <si>
@@ -1547,13 +1461,13 @@
     <t xml:space="preserve">Cardiovascular Disease</t>
   </si>
   <si>
-    <t xml:space="preserve">report having had a heart attack or chest pain from heart disease (angina) or a stroke</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is higher among those aged 45-69 years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">of the population aged 45-69 years report taking aspirin to prevent or treat heart disease</t>
+    <t xml:space="preserve">have less than ten percent of a 10-year CVD risk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">have a 10-year CVD risk ≥20% or with existing CVD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">of eligible persons receiving drug therapy and counselling to prevent heart attacks and strokes</t>
   </si>
   <si>
     <t xml:space="preserve">Lifestyle Advice</t>
@@ -1565,9 +1479,6 @@
     <t xml:space="preserve">have been advised to eat five portions of fruit and vegetables a day</t>
   </si>
   <si>
-    <t xml:space="preserve">a quarter have been advised to reduce sugary drinks</t>
-  </si>
-  <si>
     <t xml:space="preserve">have received advice on lowering the salt content in their food</t>
   </si>
   <si>
@@ -1583,10 +1494,10 @@
     <t xml:space="preserve">Multiple Risk Factors</t>
   </si>
   <si>
-    <t xml:space="preserve">a third of our population have 3 - 5 risk factors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nearly two-thirds of the population have 1-2 risk factors</t>
+    <t xml:space="preserve">of the population have 3 - 5 risk factors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">of the population have 1-2 risk factors</t>
   </si>
   <si>
     <t xml:space="preserve">of the population have 0 risk factors</t>
@@ -1615,7 +1526,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1633,6 +1544,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
@@ -1644,7 +1562,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1659,6 +1577,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFB48632"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1666,6 +1590,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1682,25 +1612,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2017,8 +1947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="true" topLeftCell="A88" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D94" sqref="D94"/>
+    <sheetView tabSelected="true" topLeftCell="A76" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A98" sqref="A98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
@@ -2043,258 +1973,258 @@
     </row>
     <row r="2">
       <c r="C2" s="1" t="s">
-        <v>417</v>
+        <v>381</v>
       </c>
       <c r="D2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B3" t="s">
-        <v>342</v>
+        <v>274</v>
       </c>
       <c r="C3" t="s">
-        <v>418</v>
+        <v>382</v>
       </c>
       <c r="D3" t="n">
-        <v>0.109797296308341</v>
+        <v>0.0893571030304202</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B4" t="s">
-        <v>343</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>419</v>
+        <v>275</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>383</v>
       </c>
       <c r="D4" t="n">
-        <v>0.198091518652541</v>
+        <v>0.137056919417251</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B5" t="s">
-        <v>344</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>420</v>
+        <v>276</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>384</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0239660107741029</v>
+        <v>0.0021093673796415</v>
       </c>
     </row>
     <row r="6">
       <c r="C6" t="s">
-        <v>421</v>
+        <v>385</v>
       </c>
       <c r="D6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>345</v>
+        <v>277</v>
       </c>
       <c r="B7" t="s">
-        <v>342</v>
+        <v>274</v>
       </c>
       <c r="C7" t="s">
-        <v>422</v>
+        <v>386</v>
       </c>
       <c r="D7" t="n">
-        <v>0.950986726359373</v>
+        <v>0.825157023525687</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>347</v>
+        <v>278</v>
       </c>
       <c r="B8" t="s">
-        <v>342</v>
+        <v>274</v>
       </c>
       <c r="C8" t="s">
-        <v>423</v>
+        <v>387</v>
       </c>
       <c r="D8" t="n">
-        <v>0.41059038758071</v>
+        <v>0.154186650077078</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>349</v>
+        <v>280</v>
       </c>
       <c r="B9" t="s">
-        <v>342</v>
+        <v>274</v>
       </c>
       <c r="C9" t="s">
-        <v>424</v>
+        <v>388</v>
       </c>
       <c r="D9" t="n">
-        <v>0.245250093302702</v>
+        <v>0.0950964328218857</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>348</v>
+        <v>279</v>
       </c>
       <c r="B10" t="s">
-        <v>342</v>
+        <v>274</v>
       </c>
       <c r="C10" t="s">
-        <v>425</v>
+        <v>389</v>
       </c>
       <c r="D10" t="n">
-        <v>0.115785451529569</v>
+        <v>0.158436151691652</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>350</v>
+        <v>281</v>
       </c>
       <c r="B11" t="s">
-        <v>342</v>
+        <v>274</v>
       </c>
       <c r="C11" t="s">
-        <v>426</v>
+        <v>390</v>
       </c>
       <c r="D11" t="n">
-        <v>0.138815576944847</v>
+        <v>0.152479618529867</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>351</v>
+        <v>282</v>
       </c>
       <c r="B12" t="s">
-        <v>342</v>
+        <v>274</v>
       </c>
       <c r="C12" t="s">
-        <v>427</v>
+        <v>391</v>
       </c>
       <c r="D12" t="n">
-        <v>0.531501397274071</v>
+        <v>0.415492842529406</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>352</v>
+        <v>283</v>
       </c>
       <c r="B13" t="s">
-        <v>342</v>
-      </c>
-      <c r="C13" t="s">
-        <v>428</v>
+        <v>274</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>392</v>
       </c>
       <c r="D13" t="n">
-        <v>0.188335092713696</v>
+        <v>0.355218755960337</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>360</v>
+        <v>291</v>
       </c>
       <c r="B14" t="s">
-        <v>342</v>
-      </c>
-      <c r="C14" t="s">
-        <v>429</v>
+        <v>274</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>393</v>
       </c>
       <c r="D14" t="n">
-        <v>0.084</v>
+        <v>0.0124471572146149</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>360</v>
+        <v>291</v>
       </c>
       <c r="B15" t="s">
-        <v>354</v>
-      </c>
-      <c r="C15" t="s">
-        <v>430</v>
+        <v>285</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>394</v>
       </c>
       <c r="D15" t="n">
-        <v>0.13</v>
+        <v>0.0177770514054027</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>360</v>
+        <v>291</v>
       </c>
       <c r="B16" t="s">
-        <v>355</v>
-      </c>
-      <c r="C16" t="s">
-        <v>431</v>
+        <v>286</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>395</v>
       </c>
       <c r="D16" t="n">
-        <v>0.025</v>
+        <v>0.0103593157927121</v>
       </c>
     </row>
     <row r="17">
-      <c r="C17" t="s">
-        <v>432</v>
+      <c r="C17" s="10" t="s">
+        <v>350</v>
       </c>
       <c r="D17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>360</v>
+        <v>291</v>
       </c>
       <c r="B18" t="s">
-        <v>356</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>433</v>
+        <v>287</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>396</v>
       </c>
       <c r="D18" t="n">
-        <v>0.16</v>
+        <v>0.0259109936908027</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>360</v>
+        <v>291</v>
       </c>
       <c r="B19" t="s">
-        <v>357</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>434</v>
+        <v>288</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>397</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1</v>
+        <v>0.0155423847301854</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>360</v>
+        <v>291</v>
       </c>
       <c r="B20" t="s">
-        <v>358</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>435</v>
+        <v>289</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>398</v>
       </c>
       <c r="D20" t="n">
-        <v>0.22</v>
+        <v>0.00011337163763872</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>360</v>
+        <v>291</v>
       </c>
       <c r="B21" t="s">
-        <v>359</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>436</v>
+        <v>290</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>399</v>
       </c>
       <c r="D21" t="n">
-        <v>0.03</v>
+        <v>0.000438882830714319</v>
       </c>
     </row>
     <row r="22">
@@ -2303,13 +2233,16 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>353</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>437</v>
+        <v>284</v>
+      </c>
+      <c r="B23" t="s">
+        <v>274</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>400</v>
       </c>
       <c r="D23" t="n">
-        <v>0.59</v>
+        <v>0.00966615560801787</v>
       </c>
     </row>
     <row r="24">
@@ -2317,79 +2250,79 @@
       <c r="D24"/>
     </row>
     <row r="25">
-      <c r="C25" s="4" t="s">
-        <v>438</v>
+      <c r="C25" s="5" t="s">
+        <v>401</v>
       </c>
       <c r="D25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>361</v>
+        <v>292</v>
       </c>
       <c r="B26" t="s">
-        <v>342</v>
+        <v>274</v>
       </c>
       <c r="C26" t="s">
-        <v>439</v>
+        <v>402</v>
       </c>
       <c r="D26" t="n">
-        <v>0.219666759836278</v>
+        <v>0.0144770276607069</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>361</v>
+        <v>292</v>
       </c>
       <c r="B27" t="s">
-        <v>343</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>419</v>
+        <v>275</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>383</v>
       </c>
       <c r="D27" t="n">
-        <v>0.339466938503037</v>
+        <v>0.0205925887412721</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>361</v>
+        <v>292</v>
       </c>
       <c r="B28" t="s">
-        <v>344</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>420</v>
+        <v>276</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>384</v>
       </c>
       <c r="D28" t="n">
-        <v>0.103208365421514</v>
+        <v>0.00329105379519092</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>361</v>
+        <v>292</v>
       </c>
       <c r="B29" t="s">
-        <v>354</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>440</v>
+        <v>285</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>403</v>
       </c>
       <c r="D29" t="n">
-        <v>0.236689353216115</v>
+        <v>0.021606612605712</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>361</v>
+        <v>292</v>
       </c>
       <c r="B30" t="s">
-        <v>355</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>441</v>
+        <v>286</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>404</v>
       </c>
       <c r="D30" t="n">
-        <v>0.16187406012983</v>
+        <v>0.0175801272068866</v>
       </c>
     </row>
     <row r="31">
@@ -2398,86 +2331,86 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>362</v>
+        <v>293</v>
       </c>
       <c r="B32" t="s">
-        <v>342</v>
+        <v>274</v>
       </c>
       <c r="C32" t="s">
-        <v>442</v>
+        <v>405</v>
       </c>
       <c r="D32" t="n">
-        <v>0.099</v>
+        <v>0.0305086966352272</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>363</v>
+        <v>294</v>
       </c>
       <c r="B33" t="s">
-        <v>342</v>
+        <v>274</v>
       </c>
       <c r="C33" t="s">
-        <v>443</v>
+        <v>406</v>
       </c>
       <c r="D33" t="n">
-        <v>0.639707989426175</v>
+        <v>0.963053169484428</v>
       </c>
     </row>
     <row r="34" ht="51" customHeight="1">
       <c r="A34" t="s">
-        <v>364</v>
+        <v>295</v>
       </c>
       <c r="B34" t="s">
-        <v>342</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>444</v>
+        <v>274</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>407</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0896262545311865</v>
+        <v>0.00199158124279434</v>
       </c>
     </row>
     <row r="35" ht="17" customHeight="1">
       <c r="A35" t="s">
-        <v>364</v>
+        <v>295</v>
       </c>
       <c r="B35" t="s">
-        <v>343</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>445</v>
+        <v>275</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>408</v>
       </c>
       <c r="D35" t="n">
-        <v>0.144814010958735</v>
+        <v>0.00308041234218428</v>
       </c>
     </row>
     <row r="36" ht="17" customHeight="1">
       <c r="A36" t="s">
-        <v>364</v>
+        <v>295</v>
       </c>
       <c r="B36" t="s">
-        <v>344</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>446</v>
+        <v>276</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>409</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0359779410969054</v>
-      </c>
-    </row>
-    <row r="37" ht="17" customHeight="1">
+        <v>0.0000000000023420317989771</v>
+      </c>
+    </row>
+    <row r="37" ht="34" customHeight="1">
       <c r="A37" t="s">
-        <v>365</v>
+        <v>296</v>
       </c>
       <c r="B37" t="s">
-        <v>342</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>33</v>
+        <v>274</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>351</v>
       </c>
       <c r="D37" t="n">
-        <v>2.5</v>
+        <v>3.59950066446967</v>
       </c>
     </row>
     <row r="38">
@@ -2486,16 +2419,16 @@
     </row>
     <row r="39" ht="51" customHeight="1">
       <c r="A39" t="s">
-        <v>364</v>
+        <v>295</v>
       </c>
       <c r="B39" t="s">
-        <v>356</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>447</v>
+        <v>287</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>410</v>
       </c>
       <c r="D39" t="n">
-        <v>0.163071324338527</v>
+        <v>0.00577275853334555</v>
       </c>
     </row>
     <row r="40">
@@ -2503,93 +2436,93 @@
       <c r="D40"/>
     </row>
     <row r="41">
-      <c r="C41" s="4" t="s">
-        <v>448</v>
+      <c r="C41" s="5" t="s">
+        <v>411</v>
       </c>
       <c r="D41"/>
     </row>
-    <row r="42" ht="34" customHeight="1">
+    <row r="42">
       <c r="A42" t="s">
-        <v>366</v>
+        <v>297</v>
       </c>
       <c r="B42" t="s">
-        <v>342</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>36</v>
+        <v>274</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>412</v>
       </c>
       <c r="D42" t="n">
-        <v>3.73974782100765</v>
-      </c>
-    </row>
-    <row r="43" ht="34" customHeight="1">
+        <v>4.62686156628882</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" t="s">
-        <v>367</v>
+        <v>298</v>
       </c>
       <c r="B43" t="s">
-        <v>342</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>449</v>
+        <v>274</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>413</v>
       </c>
       <c r="D43" t="n">
-        <v>4.95889590257975</v>
+        <v>5.59828289492689</v>
       </c>
     </row>
     <row r="44" ht="34" customHeight="1">
       <c r="A44" t="s">
-        <v>368</v>
+        <v>299</v>
       </c>
       <c r="B44" t="s">
-        <v>342</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>450</v>
+        <v>274</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>414</v>
       </c>
       <c r="D44" t="n">
-        <v>0.846877805697312</v>
+        <v>0.648351132460842</v>
       </c>
     </row>
     <row r="45" ht="17" customHeight="1">
       <c r="A45" t="s">
-        <v>369</v>
+        <v>300</v>
       </c>
       <c r="B45" t="s">
-        <v>342</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>451</v>
+        <v>274</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>415</v>
       </c>
       <c r="D45" t="n">
-        <v>0.14</v>
+        <v>0.0819731915060344</v>
       </c>
     </row>
     <row r="46" ht="17" customHeight="1">
       <c r="A46" t="s">
-        <v>369</v>
+        <v>300</v>
       </c>
       <c r="B46" t="s">
-        <v>354</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>452</v>
+        <v>285</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>416</v>
       </c>
       <c r="D46" t="n">
-        <v>0.17</v>
+        <v>0.0736345356214342</v>
       </c>
     </row>
     <row r="47" ht="17" customHeight="1">
       <c r="A47" t="s">
-        <v>369</v>
+        <v>300</v>
       </c>
       <c r="B47" t="s">
-        <v>355</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>453</v>
+        <v>286</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>417</v>
       </c>
       <c r="D47" t="n">
-        <v>0.1</v>
+        <v>0.0618137067185949</v>
       </c>
     </row>
     <row r="48">
@@ -2598,44 +2531,44 @@
     </row>
     <row r="49" ht="17" customHeight="1">
       <c r="A49" t="s">
-        <v>371</v>
+        <v>302</v>
       </c>
       <c r="B49" t="s">
-        <v>342</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>454</v>
+        <v>274</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>418</v>
       </c>
       <c r="D49" t="n">
-        <v>0.19</v>
+        <v>0.154862176327266</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>371</v>
+        <v>302</v>
       </c>
       <c r="B50" t="s">
-        <v>343</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>440</v>
+        <v>275</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>403</v>
       </c>
       <c r="D50" t="n">
-        <v>0.26</v>
+        <v>0.141484932062466</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>371</v>
+        <v>302</v>
       </c>
       <c r="B51" t="s">
-        <v>344</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>441</v>
+        <v>276</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>404</v>
       </c>
       <c r="D51" t="n">
-        <v>0.11</v>
+        <v>0.1792613622838</v>
       </c>
     </row>
     <row r="52">
@@ -2644,44 +2577,44 @@
     </row>
     <row r="53" ht="34" customHeight="1">
       <c r="A53" t="s">
-        <v>372</v>
+        <v>303</v>
       </c>
       <c r="B53" t="s">
-        <v>342</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>455</v>
+        <v>274</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>419</v>
       </c>
       <c r="D53" t="n">
-        <v>0.246655151254417</v>
+        <v>0.212855291582901</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>372</v>
+        <v>303</v>
       </c>
       <c r="B54" t="s">
-        <v>354</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>440</v>
+        <v>285</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>403</v>
       </c>
       <c r="D54" t="n">
-        <v>0.255831897016982</v>
+        <v>0.229959238798549</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>372</v>
+        <v>303</v>
       </c>
       <c r="B55" t="s">
-        <v>355</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>441</v>
+        <v>286</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>404</v>
       </c>
       <c r="D55" t="n">
-        <v>0.215532274063746</v>
+        <v>0.175875641092947</v>
       </c>
     </row>
     <row r="56">
@@ -2689,135 +2622,133 @@
       <c r="D56"/>
     </row>
     <row r="57">
-      <c r="C57" s="4" t="s">
-        <v>456</v>
+      <c r="C57" s="5" t="s">
+        <v>420</v>
       </c>
       <c r="D57"/>
     </row>
     <row r="58" ht="34" customHeight="1">
       <c r="A58" t="s">
-        <v>373</v>
+        <v>304</v>
       </c>
       <c r="B58" t="s">
-        <v>342</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>457</v>
+        <v>274</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>421</v>
       </c>
       <c r="D58" t="n">
-        <v>0.106316166170924</v>
+        <v>0.282180067039838</v>
       </c>
     </row>
     <row r="59" ht="17" customHeight="1">
       <c r="A59" t="s">
-        <v>373</v>
+        <v>304</v>
       </c>
       <c r="B59" t="s">
-        <v>343</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>458</v>
+        <v>275</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>422</v>
       </c>
       <c r="D59" t="n">
-        <v>0.070041758216968</v>
+        <v>0.237527958400077</v>
       </c>
     </row>
     <row r="60" ht="17" customHeight="1">
       <c r="A60" t="s">
-        <v>373</v>
+        <v>304</v>
       </c>
       <c r="B60" t="s">
-        <v>344</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>459</v>
+        <v>276</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>423</v>
       </c>
       <c r="D60" t="n">
-        <v>0.141019907321169</v>
+        <v>0.363517651653178</v>
       </c>
     </row>
     <row r="61" ht="17" customHeight="1">
       <c r="A61" t="s">
-        <v>374</v>
+        <v>305</v>
       </c>
       <c r="B61" t="s">
-        <v>343</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>460</v>
+        <v>275</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>424</v>
       </c>
       <c r="D61" t="n">
-        <v>0.327814702668058</v>
+        <v>0.648754013202574</v>
       </c>
     </row>
     <row r="62" ht="17" customHeight="1">
       <c r="A62" t="s">
-        <v>374</v>
+        <v>305</v>
       </c>
       <c r="B62" t="s">
-        <v>344</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>461</v>
+        <v>276</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>425</v>
       </c>
       <c r="D62" t="n">
-        <v>0.742705938422831</v>
+        <v>0.919905639690629</v>
       </c>
     </row>
     <row r="63" ht="34" customHeight="1">
       <c r="A63" t="s">
-        <v>375</v>
+        <v>307</v>
       </c>
       <c r="B63" t="s">
-        <v>342</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0.75</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="D63"/>
     </row>
     <row r="64" ht="17" customHeight="1">
       <c r="A64" t="s">
-        <v>376</v>
+        <v>306</v>
       </c>
       <c r="B64" t="s">
-        <v>342</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>463</v>
+        <v>274</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>427</v>
       </c>
       <c r="D64" t="n">
-        <v>0.47</v>
+        <v>0.52713003846957</v>
       </c>
     </row>
     <row r="65" ht="17" customHeight="1">
       <c r="A65" t="s">
-        <v>377</v>
+        <v>308</v>
       </c>
       <c r="B65" t="s">
-        <v>342</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>464</v>
+        <v>274</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>428</v>
       </c>
       <c r="D65" t="n">
-        <v>0.37</v>
+        <v>0.557720817974727</v>
       </c>
     </row>
     <row r="66" ht="17" customHeight="1">
       <c r="A66" t="s">
-        <v>378</v>
+        <v>309</v>
       </c>
       <c r="B66" t="s">
-        <v>342</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>465</v>
+        <v>274</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>429</v>
       </c>
       <c r="D66" t="n">
-        <v>270</v>
+        <v>190.242550752619</v>
       </c>
     </row>
     <row r="67">
@@ -2825,107 +2756,107 @@
       <c r="D67"/>
     </row>
     <row r="68">
-      <c r="C68" s="4" t="s">
-        <v>466</v>
+      <c r="C68" s="5" t="s">
+        <v>430</v>
       </c>
       <c r="D68"/>
     </row>
     <row r="69" ht="17" customHeight="1">
       <c r="A69" t="s">
-        <v>379</v>
+        <v>310</v>
       </c>
       <c r="B69" t="s">
-        <v>342</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>467</v>
+        <v>274</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>431</v>
       </c>
       <c r="D69" t="n">
-        <v>0.247177645660771</v>
+        <v>0.271529064979618</v>
       </c>
     </row>
     <row r="70" ht="17" customHeight="1">
       <c r="A70" t="s">
-        <v>379</v>
+        <v>310</v>
       </c>
       <c r="B70" t="s">
-        <v>343</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>468</v>
+        <v>275</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>432</v>
       </c>
       <c r="D70" t="n">
-        <v>0.120964328797015</v>
+        <v>0.225366525600195</v>
       </c>
     </row>
     <row r="71" ht="17" customHeight="1">
       <c r="A71" t="s">
-        <v>379</v>
+        <v>310</v>
       </c>
       <c r="B71" t="s">
-        <v>344</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>469</v>
+        <v>276</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>433</v>
       </c>
       <c r="D71" t="n">
-        <v>0.37461268841143</v>
+        <v>0.360364585473353</v>
       </c>
     </row>
     <row r="72" ht="17" customHeight="1">
       <c r="A72" t="s">
-        <v>380</v>
+        <v>311</v>
       </c>
       <c r="B72" t="s">
-        <v>342</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>470</v>
+        <v>274</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>434</v>
       </c>
       <c r="D72" t="n">
-        <v>0.269240328143743</v>
+        <v>0.359266040587775</v>
       </c>
     </row>
     <row r="73" ht="17" customHeight="1">
       <c r="A73" t="s">
-        <v>380</v>
+        <v>311</v>
       </c>
       <c r="B73" t="s">
-        <v>343</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>471</v>
+        <v>275</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>435</v>
       </c>
       <c r="D73" t="n">
-        <v>0.250762203367974</v>
+        <v>0.392294484621839</v>
       </c>
     </row>
     <row r="74" ht="17" customHeight="1">
       <c r="A74" t="s">
-        <v>380</v>
+        <v>311</v>
       </c>
       <c r="B74" t="s">
-        <v>344</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>472</v>
+        <v>276</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>436</v>
       </c>
       <c r="D74" t="n">
-        <v>0.28789731838169</v>
+        <v>0.295705868034784</v>
       </c>
     </row>
     <row r="75" ht="17" customHeight="1">
       <c r="A75" t="s">
-        <v>381</v>
+        <v>312</v>
       </c>
       <c r="B75" t="s">
-        <v>342</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>473</v>
+        <v>274</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>437</v>
       </c>
       <c r="D75" t="n">
-        <v>0.7</v>
+        <v>0.628777352168168</v>
       </c>
     </row>
     <row r="76">
@@ -2937,605 +2868,544 @@
       <c r="D77"/>
     </row>
     <row r="78">
-      <c r="C78" s="4" t="s">
-        <v>474</v>
+      <c r="C78" s="5" t="s">
+        <v>438</v>
       </c>
       <c r="D78"/>
     </row>
-    <row r="79" ht="17" customHeight="1">
+    <row r="79" ht="34" customHeight="1">
       <c r="A79" t="s">
-        <v>382</v>
+        <v>313</v>
       </c>
       <c r="B79" t="s">
-        <v>342</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>475</v>
+        <v>274</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>439</v>
       </c>
       <c r="D79" t="n">
-        <v>0.21656918674225</v>
+        <v>0.27681126607407</v>
       </c>
     </row>
     <row r="80" ht="17" customHeight="1">
       <c r="A80" t="s">
-        <v>383</v>
+        <v>314</v>
       </c>
       <c r="B80" t="s">
-        <v>342</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>476</v>
+        <v>274</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>440</v>
       </c>
       <c r="D80" t="n">
-        <v>0.286150306944185</v>
+        <v>0.264365902127534</v>
       </c>
     </row>
     <row r="81" ht="34" customHeight="1">
       <c r="A81" t="s">
-        <v>384</v>
+        <v>315</v>
       </c>
       <c r="B81" t="s">
-        <v>342</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0.103059755308783</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="D81"/>
     </row>
     <row r="82" ht="17" customHeight="1">
+      <c r="A82" t="s">
+        <v>316</v>
+      </c>
+      <c r="B82" t="s">
+        <v>274</v>
+      </c>
       <c r="C82" s="6" t="s">
-        <v>478</v>
-      </c>
-      <c r="D82" s="7" t="n">
-        <v>0.15</v>
+        <v>52</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.106390625259792</v>
       </c>
     </row>
     <row r="83" ht="34" customHeight="1">
       <c r="A83" t="s">
-        <v>413</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D83" s="2" t="n">
-        <v>0.23</v>
+        <v>356</v>
+      </c>
+      <c r="B83" t="s">
+        <v>274</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.322874793852646</v>
       </c>
     </row>
     <row r="84" ht="17" customHeight="1">
       <c r="A84" t="s">
-        <v>385</v>
+        <v>356</v>
       </c>
       <c r="B84" t="s">
-        <v>342</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>68</v>
+        <v>285</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>443</v>
       </c>
       <c r="D84" t="n">
-        <v>0.1390756109239</v>
+        <v>0.223752179740885</v>
       </c>
     </row>
     <row r="85" ht="17" customHeight="1">
       <c r="A85" t="s">
-        <v>414</v>
+        <v>356</v>
       </c>
       <c r="B85" t="s">
-        <v>342</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>479</v>
+        <v>286</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>444</v>
       </c>
       <c r="D85" t="n">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="86" ht="17" customHeight="1">
-      <c r="A86" t="s">
-        <v>414</v>
-      </c>
-      <c r="B86" t="s">
-        <v>343</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>480</v>
-      </c>
-      <c r="D86" t="n">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="87" ht="17" customHeight="1">
-      <c r="A87" t="s">
-        <v>414</v>
-      </c>
-      <c r="B87" t="s">
-        <v>344</v>
-      </c>
+        <v>0.417553336294116</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="C86" s="6"/>
+      <c r="D86"/>
+    </row>
+    <row r="87">
       <c r="C87" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="D87" t="n">
-        <v>0.24</v>
-      </c>
+        <v>445</v>
+      </c>
+      <c r="D87"/>
     </row>
     <row r="88" ht="34" customHeight="1">
       <c r="A88" t="s">
-        <v>385</v>
+        <v>358</v>
       </c>
       <c r="B88" t="s">
-        <v>342</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>482</v>
+        <v>274</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>446</v>
       </c>
       <c r="D88" t="n">
-        <v>0.1390756109239</v>
-      </c>
-    </row>
-    <row r="89" ht="17" customHeight="1">
+        <v>0.552983072545085</v>
+      </c>
+    </row>
+    <row r="89" ht="34" customHeight="1">
       <c r="A89" t="s">
-        <v>385</v>
+        <v>343</v>
       </c>
       <c r="B89" t="s">
-        <v>354</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>483</v>
+        <v>274</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>447</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0963146709233432</v>
+        <v>0.303991401172785</v>
       </c>
     </row>
     <row r="90" ht="17" customHeight="1">
       <c r="A90" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B90" t="s">
-        <v>355</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>484</v>
+        <v>274</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>448</v>
       </c>
       <c r="D90" t="n">
-        <v>0.180115055730575</v>
+        <v>0.529378559919589</v>
       </c>
     </row>
     <row r="91">
-      <c r="C91" s="5"/>
+      <c r="C91"/>
       <c r="D91"/>
     </row>
     <row r="92">
-      <c r="C92" s="4" t="s">
-        <v>485</v>
+      <c r="C92" s="5" t="s">
+        <v>449</v>
       </c>
       <c r="D92"/>
     </row>
-    <row r="93" ht="34" customHeight="1">
+    <row r="93" ht="17" customHeight="1">
       <c r="A93" t="s">
-        <v>386</v>
+        <v>360</v>
       </c>
       <c r="B93" t="s">
-        <v>342</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="D93" t="n">
-        <v>0.0371399925845965</v>
-      </c>
-    </row>
-    <row r="94" ht="34" customHeight="1">
+        <v>274</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="D93" s="7" t="n">
+        <v>0.258672391787778</v>
+      </c>
+    </row>
+    <row r="94" ht="19" customHeight="1">
       <c r="A94" t="s">
-        <v>416</v>
+        <v>361</v>
       </c>
       <c r="B94" t="s">
-        <v>342</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>487</v>
-      </c>
-      <c r="D94" s="2" t="n">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="95" ht="17" customHeight="1">
-      <c r="C95" s="5" t="s">
-        <v>488</v>
-      </c>
-      <c r="D95"/>
+        <v>274</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="D94" s="7" t="n">
+        <v>0.180338242634771</v>
+      </c>
+    </row>
+    <row r="95" ht="34" customHeight="1">
+      <c r="A95" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="B95" t="s">
+        <v>274</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="D95" s="7" t="n">
+        <v>0.252478614000543</v>
+      </c>
     </row>
     <row r="96" ht="34" customHeight="1">
+      <c r="A96" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="B96" t="s">
+        <v>274</v>
+      </c>
       <c r="C96" s="6" t="s">
-        <v>489</v>
+        <v>453</v>
       </c>
       <c r="D96" s="7" t="n">
-        <v>0.57</v>
+        <v>0.294341034019621</v>
       </c>
     </row>
     <row r="97" ht="17" customHeight="1">
+      <c r="A97" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="B97" t="s">
+        <v>275</v>
+      </c>
       <c r="C97" s="6" t="s">
-        <v>490</v>
-      </c>
-      <c r="D97" s="7" t="n">
-        <v>0.3</v>
-      </c>
+        <v>454</v>
+      </c>
+      <c r="D97" s="7"/>
     </row>
     <row r="98" ht="17" customHeight="1">
+      <c r="A98" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="B98" t="s">
+        <v>276</v>
+      </c>
       <c r="C98" s="6" t="s">
-        <v>491</v>
-      </c>
-      <c r="D98" s="7" t="n">
-        <v>0.5</v>
-      </c>
+        <v>455</v>
+      </c>
+      <c r="D98" s="7"/>
     </row>
     <row r="99" ht="17" customHeight="1">
-      <c r="C99" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="D99" s="7"/>
+      <c r="A99" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="B99" t="s">
+        <v>274</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="D99" s="7" t="n">
+        <v>0.0607384374628042</v>
+      </c>
     </row>
     <row r="100" ht="17" customHeight="1">
-      <c r="A100" t="s">
-        <v>415</v>
+      <c r="A100" s="3" t="s">
+        <v>365</v>
       </c>
       <c r="B100" t="s">
-        <v>342</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>493</v>
-      </c>
-      <c r="D100" s="2" t="n">
-        <v>0.078</v>
-      </c>
-    </row>
-    <row r="101" ht="17" customHeight="1">
-      <c r="C101" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="D101" s="7" t="n">
-        <v>0.048</v>
-      </c>
-    </row>
-    <row r="102" ht="17" customHeight="1">
-      <c r="C102" s="6" t="s">
-        <v>495</v>
-      </c>
-      <c r="D102" s="7" t="n">
-        <v>0.016</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="C103"/>
-      <c r="D103"/>
-    </row>
-    <row r="104">
-      <c r="C104" s="4" t="s">
-        <v>496</v>
-      </c>
-      <c r="D104"/>
-    </row>
-    <row r="105" ht="17" customHeight="1">
+        <v>274</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="D100" s="7" t="n">
+        <v>0.110759511482844</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="C101"/>
+      <c r="D101"/>
+    </row>
+    <row r="102">
+      <c r="C102" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="D102"/>
+    </row>
+    <row r="103" ht="17" customHeight="1">
+      <c r="A103" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="B103" t="s">
+        <v>274</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="D103" s="7" t="n">
+        <v>0.752841652332203</v>
+      </c>
+    </row>
+    <row r="104" ht="17" customHeight="1">
+      <c r="A104" t="s">
+        <v>370</v>
+      </c>
+      <c r="B104" t="s">
+        <v>274</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="D104" s="7" t="n">
+        <v>0.0698205930777729</v>
+      </c>
+    </row>
+    <row r="105" ht="34" customHeight="1">
+      <c r="A105" t="s">
+        <v>371</v>
+      </c>
+      <c r="B105" t="s">
+        <v>274</v>
+      </c>
       <c r="C105" s="6" t="s">
-        <v>497</v>
+        <v>461</v>
       </c>
       <c r="D105" s="7" t="n">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="106" ht="17" customHeight="1">
-      <c r="C106" s="6" t="s">
-        <v>498</v>
-      </c>
-      <c r="D106" s="7" t="n">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="107" ht="19" customHeight="1">
-      <c r="C107" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="D107" s="7" t="n">
-        <v>0.32</v>
-      </c>
+        <v>0.631210188346522</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="C106"/>
+      <c r="D106"/>
+    </row>
+    <row r="107">
+      <c r="C107" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="D107"/>
     </row>
     <row r="108" ht="34" customHeight="1">
+      <c r="A108" t="s">
+        <v>324</v>
+      </c>
+      <c r="B108" t="s">
+        <v>274</v>
+      </c>
       <c r="C108" s="6" t="s">
-        <v>500</v>
-      </c>
-      <c r="D108" s="7" t="n">
-        <v>0.32</v>
+        <v>463</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.164963173428957</v>
       </c>
     </row>
     <row r="109" ht="34" customHeight="1">
+      <c r="A109" t="s">
+        <v>325</v>
+      </c>
+      <c r="B109" t="s">
+        <v>274</v>
+      </c>
       <c r="C109" s="6" t="s">
-        <v>501</v>
-      </c>
-      <c r="D109" s="7" t="n">
-        <v>0.41</v>
+        <v>464</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.452949345478944</v>
       </c>
     </row>
     <row r="110" ht="17" customHeight="1">
+      <c r="A110" t="s">
+        <v>327</v>
+      </c>
+      <c r="B110" t="s">
+        <v>274</v>
+      </c>
       <c r="C110" s="6" t="s">
-        <v>502</v>
-      </c>
-      <c r="D110" s="7" t="n">
-        <v>0.5</v>
+        <v>326</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.47460437934896</v>
       </c>
     </row>
     <row r="111" ht="17" customHeight="1">
+      <c r="A111" t="s">
+        <v>328</v>
+      </c>
+      <c r="B111" t="s">
+        <v>274</v>
+      </c>
       <c r="C111" s="6" t="s">
-        <v>503</v>
-      </c>
-      <c r="D111" s="7" t="n">
-        <v>0.53</v>
+        <v>465</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.371530786632929</v>
       </c>
     </row>
     <row r="112" ht="17" customHeight="1">
+      <c r="A112" t="s">
+        <v>329</v>
+      </c>
+      <c r="B112" t="s">
+        <v>274</v>
+      </c>
       <c r="C112" s="6" t="s">
-        <v>504</v>
-      </c>
-      <c r="D112" s="7" t="n">
-        <v>0.062</v>
+        <v>466</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.467647875488831</v>
       </c>
     </row>
     <row r="113" ht="17" customHeight="1">
+      <c r="A113" t="s">
+        <v>330</v>
+      </c>
+      <c r="B113" t="s">
+        <v>274</v>
+      </c>
       <c r="C113" s="6" t="s">
-        <v>505</v>
-      </c>
-      <c r="D113" s="7" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="C114"/>
-      <c r="D114"/>
+        <v>467</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.508835036400999</v>
+      </c>
+    </row>
+    <row r="114" ht="17" customHeight="1">
+      <c r="A114" t="s">
+        <v>331</v>
+      </c>
+      <c r="B114" t="s">
+        <v>274</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.481035771699663</v>
+      </c>
     </row>
     <row r="115">
-      <c r="C115" s="4" t="s">
-        <v>506</v>
-      </c>
+      <c r="C115"/>
       <c r="D115"/>
     </row>
-    <row r="116" ht="34" customHeight="1">
-      <c r="C116" s="6" t="s">
-        <v>507</v>
-      </c>
-      <c r="D116" s="7" t="n">
-        <v>0.037</v>
-      </c>
+    <row r="116">
+      <c r="C116" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="D116"/>
     </row>
     <row r="117" ht="17" customHeight="1">
+      <c r="A117" t="s">
+        <v>319</v>
+      </c>
+      <c r="B117" t="s">
+        <v>274</v>
+      </c>
       <c r="C117" s="6" t="s">
-        <v>508</v>
-      </c>
-      <c r="D117" s="7" t="n">
-        <v>0.058</v>
-      </c>
-    </row>
-    <row r="118" ht="34" customHeight="1">
+        <v>470</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.280620432386387</v>
+      </c>
+    </row>
+    <row r="118" ht="17" customHeight="1">
+      <c r="A118" t="s">
+        <v>320</v>
+      </c>
+      <c r="B118" t="s">
+        <v>274</v>
+      </c>
       <c r="C118" s="6" t="s">
-        <v>509</v>
-      </c>
-      <c r="D118" s="7" t="n">
-        <v>0.097</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="C119"/>
-      <c r="D119"/>
-    </row>
-    <row r="120">
-      <c r="C120" s="4" t="s">
-        <v>510</v>
-      </c>
-      <c r="D120"/>
-    </row>
-    <row r="121" ht="34" customHeight="1">
+        <v>471</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.643727900800651</v>
+      </c>
+    </row>
+    <row r="119" ht="17" customHeight="1">
+      <c r="A119" t="s">
+        <v>321</v>
+      </c>
+      <c r="B119" t="s">
+        <v>274</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.0756516672633303</v>
+      </c>
+    </row>
+    <row r="120" ht="17" customHeight="1">
+      <c r="A120" t="s">
+        <v>322</v>
+      </c>
+      <c r="B120" t="s">
+        <v>274</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.245271012047229</v>
+      </c>
+    </row>
+    <row r="121" ht="17" customHeight="1">
       <c r="A121" t="s">
-        <v>394</v>
+        <v>323</v>
       </c>
       <c r="B121" t="s">
-        <v>342</v>
-      </c>
-      <c r="C121" s="5" t="s">
-        <v>511</v>
+        <v>274</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>474</v>
       </c>
       <c r="D121" t="n">
-        <v>0.083</v>
-      </c>
-    </row>
-    <row r="122" ht="34" customHeight="1">
-      <c r="A122" t="s">
-        <v>395</v>
-      </c>
-      <c r="B122" t="s">
-        <v>342</v>
-      </c>
-      <c r="C122" s="5" t="s">
-        <v>512</v>
-      </c>
-      <c r="D122" t="n">
-        <v>0.29</v>
-      </c>
+        <v>0.422421810747382</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="C122"/>
+      <c r="D122"/>
     </row>
     <row r="123" ht="17" customHeight="1">
-      <c r="A123" t="s">
-        <v>397</v>
-      </c>
-      <c r="B123" t="s">
-        <v>342</v>
-      </c>
-      <c r="C123" s="5" t="s">
-        <v>513</v>
-      </c>
-      <c r="D123" t="n">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="124" ht="17" customHeight="1">
-      <c r="A124" t="s">
-        <v>398</v>
-      </c>
-      <c r="B124" t="s">
-        <v>342</v>
-      </c>
-      <c r="C124" s="5" t="s">
-        <v>514</v>
-      </c>
-      <c r="D124" t="n">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="125" ht="17" customHeight="1">
-      <c r="A125" t="s">
-        <v>399</v>
-      </c>
-      <c r="B125" t="s">
-        <v>342</v>
-      </c>
-      <c r="C125" s="5" t="s">
-        <v>515</v>
-      </c>
-      <c r="D125" t="n">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="126" ht="17" customHeight="1">
-      <c r="A126" t="s">
-        <v>400</v>
-      </c>
-      <c r="B126" t="s">
-        <v>342</v>
-      </c>
-      <c r="C126" s="5" t="s">
-        <v>516</v>
-      </c>
-      <c r="D126" t="n">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="127" ht="17" customHeight="1">
-      <c r="A127" t="s">
-        <v>401</v>
-      </c>
-      <c r="B127" t="s">
-        <v>342</v>
-      </c>
-      <c r="C127" s="5" t="s">
-        <v>517</v>
-      </c>
-      <c r="D127" t="n">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="C128"/>
-      <c r="D128"/>
-    </row>
-    <row r="129">
-      <c r="C129" s="4" t="s">
-        <v>518</v>
-      </c>
-      <c r="D129"/>
-    </row>
-    <row r="130" ht="17" customHeight="1">
-      <c r="A130" t="s">
-        <v>389</v>
-      </c>
-      <c r="B130" t="s">
-        <v>342</v>
-      </c>
-      <c r="C130" s="5" t="s">
-        <v>519</v>
-      </c>
-      <c r="D130" t="n">
-        <v>0.182833236337841</v>
-      </c>
-    </row>
-    <row r="131" ht="17" customHeight="1">
-      <c r="A131" t="s">
-        <v>390</v>
-      </c>
-      <c r="B131" t="s">
-        <v>342</v>
-      </c>
-      <c r="C131" s="5" t="s">
-        <v>520</v>
-      </c>
-      <c r="D131" t="n">
-        <v>0.775141300947628</v>
-      </c>
-    </row>
-    <row r="132" ht="17" customHeight="1">
-      <c r="A132" t="s">
-        <v>391</v>
-      </c>
-      <c r="B132" t="s">
-        <v>342</v>
-      </c>
-      <c r="C132" s="5" t="s">
-        <v>521</v>
-      </c>
-      <c r="D132" t="n">
-        <v>0.0420254632463404</v>
-      </c>
-    </row>
-    <row r="133" ht="17" customHeight="1">
-      <c r="A133" t="s">
-        <v>392</v>
-      </c>
-      <c r="B133" t="s">
-        <v>342</v>
-      </c>
-      <c r="C133" s="5" t="s">
-        <v>522</v>
-      </c>
-      <c r="D133" t="n">
-        <v>0.128882267663447</v>
-      </c>
-    </row>
-    <row r="134" ht="17" customHeight="1">
-      <c r="A134" t="s">
-        <v>393</v>
-      </c>
-      <c r="B134" t="s">
-        <v>342</v>
-      </c>
-      <c r="C134" s="5" t="s">
-        <v>523</v>
-      </c>
-      <c r="D134" t="n">
-        <v>0.367855305607801</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="C135"/>
-      <c r="D135"/>
-    </row>
-    <row r="136" ht="17" customHeight="1">
-      <c r="C136" s="8" t="s">
-        <v>524</v>
-      </c>
-      <c r="D136"/>
-    </row>
-    <row r="137">
-      <c r="C137" t="s">
-        <v>525</v>
-      </c>
-      <c r="D137"/>
-    </row>
-    <row r="138">
-      <c r="C138" t="s">
-        <v>526</v>
-      </c>
-      <c r="D138"/>
-    </row>
-    <row r="139">
-      <c r="C139" t="s">
-        <v>527</v>
-      </c>
-      <c r="D139"/>
+      <c r="C123" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="D123"/>
+    </row>
+    <row r="124">
+      <c r="C124" t="s">
+        <v>476</v>
+      </c>
+      <c r="D124"/>
+    </row>
+    <row r="125">
+      <c r="C125" t="s">
+        <v>477</v>
+      </c>
+      <c r="D125"/>
+    </row>
+    <row r="126">
+      <c r="C126" t="s">
+        <v>478</v>
+      </c>
+      <c r="D126"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3547,8 +3417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A132" workbookViewId="0">
-      <selection activeCell="A137" sqref="A137:A139"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A90" sqref="A90:XFD91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
@@ -3560,1347 +3430,1204 @@
   <sheetData>
     <row r="1" ht="17" customHeight="1">
       <c r="A1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>116</v>
+        <v>79</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>273</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>118</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" ht="17" customHeight="1">
       <c r="A3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" ht="17" customHeight="1">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" ht="17" customHeight="1">
+      <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" ht="17" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5" ht="17" customHeight="1">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>124</v>
+      <c r="B5" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="6" ht="17" customHeight="1">
       <c r="A6" t="s">
-        <v>338</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>412</v>
+        <v>271</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="7" ht="17" customHeight="1">
       <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>126</v>
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="8" ht="17" customHeight="1">
       <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>128</v>
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="9" ht="17" customHeight="1">
       <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>130</v>
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="10" ht="17" customHeight="1">
       <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>131</v>
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="11" ht="17" customHeight="1">
       <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12" ht="34" customHeight="1">
       <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" ht="51" customHeight="1">
+      <c r="A13" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" ht="34" customHeight="1">
+      <c r="A14" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" ht="34" customHeight="1">
+      <c r="A15" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" ht="34" customHeight="1">
+      <c r="A16" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" ht="34" customHeight="1">
+      <c r="A17" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" ht="17" customHeight="1">
+      <c r="A18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" ht="17" customHeight="1">
+      <c r="A19" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="13" ht="51" customHeight="1">
-      <c r="A13" t="s">
+      <c r="B19" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" ht="17" customHeight="1">
+      <c r="A20" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="14" ht="34" customHeight="1">
-      <c r="A14" t="s">
+      <c r="B20" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" ht="17" customHeight="1">
+      <c r="A21" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="15" ht="34" customHeight="1">
-      <c r="A15" t="s">
+      <c r="B21" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" ht="34" customHeight="1">
+      <c r="A23" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="16" ht="34" customHeight="1">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="17" ht="34" customHeight="1">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="18" ht="17" customHeight="1">
-      <c r="A18" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="19" ht="17" customHeight="1">
-      <c r="A19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="20" ht="17" customHeight="1">
-      <c r="A20" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="21" ht="17" customHeight="1">
-      <c r="A21" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="23" ht="34" customHeight="1">
-      <c r="A23" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>156</v>
+      <c r="B25" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="26" ht="34" customHeight="1">
       <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>158</v>
+        <v>17</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="27" ht="17" customHeight="1">
-      <c r="A27" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>122</v>
+      <c r="A27" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="28" ht="17" customHeight="1">
-      <c r="A28" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C28" s="5" t="s">
+      <c r="A28" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" ht="17" customHeight="1">
+      <c r="A29" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="29" ht="17" customHeight="1">
-      <c r="A29" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>160</v>
+      <c r="C29" s="6" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="30" ht="17" customHeight="1">
-      <c r="A30" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>162</v>
+      <c r="A30" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="32" ht="17" customHeight="1">
       <c r="A32" t="s">
-        <v>28</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>164</v>
+        <v>20</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="33" ht="34" customHeight="1">
       <c r="A33" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34" ht="68" customHeight="1">
+      <c r="A34" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="35" ht="51" customHeight="1">
+      <c r="A35" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="36" ht="51" customHeight="1">
+      <c r="A36" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="37" ht="51" customHeight="1">
+      <c r="A37" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="39" ht="68" customHeight="1">
+      <c r="A39" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="42" ht="68" customHeight="1">
+      <c r="A42" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="43" ht="68" customHeight="1">
+      <c r="A43" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="44" ht="51" customHeight="1">
+      <c r="A44" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="45" ht="34" customHeight="1">
+      <c r="A45" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="46" ht="51" customHeight="1">
+      <c r="A46" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B46" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="47" ht="51" customHeight="1">
+      <c r="A47" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="49" ht="51" customHeight="1">
+      <c r="A49" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="50" ht="17" customHeight="1">
+      <c r="A50" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="51" ht="17" customHeight="1">
+      <c r="A51" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="53" ht="68" customHeight="1">
+      <c r="A53" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="54" ht="17" customHeight="1">
+      <c r="A54" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="55" ht="17" customHeight="1">
+      <c r="A55" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="58" ht="68" customHeight="1">
+      <c r="A58" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="59" ht="34" customHeight="1">
+      <c r="A59" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C59" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="C33" s="5" t="s">
+    </row>
+    <row r="60" ht="34" customHeight="1">
+      <c r="A60" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B60" s="6" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="34" ht="68" customHeight="1">
-      <c r="A34" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B34" s="5" t="s">
+      <c r="C60" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="C34" s="5" t="s">
+    </row>
+    <row r="61" ht="34" customHeight="1">
+      <c r="A61" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B61" s="6" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="35" ht="51" customHeight="1">
-      <c r="A35" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B35" s="5" t="s">
+      <c r="C61" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="C35" s="5" t="s">
+    </row>
+    <row r="62" ht="34" customHeight="1">
+      <c r="A62" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B62" s="6" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="36" ht="51" customHeight="1">
-      <c r="A36" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B36" s="5" t="s">
+      <c r="C62" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="C36" s="5" t="s">
+    </row>
+    <row r="63" ht="68" customHeight="1">
+      <c r="A63" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="B63" s="6" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="37" ht="51" customHeight="1">
-      <c r="A37" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B37" s="5" t="s">
+      <c r="C63" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C37" s="5" t="s">
+    </row>
+    <row r="64" ht="34" customHeight="1">
+      <c r="A64" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B64" s="6" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="39" ht="68" customHeight="1">
-      <c r="A39" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B39" s="5" t="s">
+      <c r="C64" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="C39" s="5" t="s">
+    </row>
+    <row r="65" ht="34" customHeight="1">
+      <c r="A65" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B65" s="6" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B41" s="4" t="s">
+      <c r="C65" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="C41" s="4" t="s">
+    </row>
+    <row r="66" ht="34" customHeight="1">
+      <c r="A66" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B66" s="6" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="42" ht="68" customHeight="1">
-      <c r="A42" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B42" s="5" t="s">
+      <c r="C66" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="C42" s="5" t="s">
+    </row>
+    <row r="68">
+      <c r="A68" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B68" s="5" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="43" ht="68" customHeight="1">
-      <c r="A43" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B43" s="5" t="s">
+      <c r="C68" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="C43" s="5" t="s">
+    </row>
+    <row r="69" ht="17" customHeight="1">
+      <c r="A69" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B69" s="6" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="44" ht="51" customHeight="1">
-      <c r="A44" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B44" s="5" t="s">
+      <c r="C69" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="C44" s="5" t="s">
+    </row>
+    <row r="70" ht="17" customHeight="1">
+      <c r="A70" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B70" s="6" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="45" ht="34" customHeight="1">
-      <c r="A45" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B45" s="5" t="s">
+      <c r="C70" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="C45" s="5" t="s">
+    </row>
+    <row r="71" ht="17" customHeight="1">
+      <c r="A71" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B71" s="6" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="46" ht="51" customHeight="1">
-      <c r="A46" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B46" s="5" t="s">
+      <c r="C71" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="C46" s="5" t="s">
+    </row>
+    <row r="72" ht="34" customHeight="1">
+      <c r="A72" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B72" s="6" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="47" ht="51" customHeight="1">
-      <c r="A47" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B47" s="5" t="s">
+      <c r="C72" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="C47" s="5" t="s">
+    </row>
+    <row r="73" ht="17" customHeight="1">
+      <c r="A73" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B73" s="6" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="49" ht="51" customHeight="1">
-      <c r="A49" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B49" s="5" t="s">
+      <c r="C73" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="C49" s="5" t="s">
+    </row>
+    <row r="74" ht="17" customHeight="1">
+      <c r="A74" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B74" s="6" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="50" ht="17" customHeight="1">
-      <c r="A50" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="51" ht="17" customHeight="1">
-      <c r="A51" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="53" ht="68" customHeight="1">
-      <c r="A53" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B53" s="5" t="s">
+      <c r="C74" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="C53" s="5" t="s">
+    </row>
+    <row r="75" ht="34" customHeight="1">
+      <c r="A75" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B75" s="6" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="54" ht="17" customHeight="1">
-      <c r="A54" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="55" ht="17" customHeight="1">
-      <c r="A55" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B57" s="4" t="s">
+      <c r="C75" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="C57" s="4" t="s">
+    </row>
+    <row r="78">
+      <c r="A78" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B78" s="5" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="58" ht="68" customHeight="1">
-      <c r="A58" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B58" s="5" t="s">
+      <c r="C78" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="C58" s="5" t="s">
+    </row>
+    <row r="79" ht="51" customHeight="1">
+      <c r="A79" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="B79" s="6" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="59" ht="34" customHeight="1">
-      <c r="A59" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B59" s="5" t="s">
+      <c r="C79" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="C59" s="5" t="s">
+    </row>
+    <row r="80" ht="17" customHeight="1">
+      <c r="A80" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B80" s="6" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" ht="34" customHeight="1">
-      <c r="A60" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B60" s="5" t="s">
+      <c r="C80" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="C60" s="5" t="s">
+    </row>
+    <row r="81" ht="51" customHeight="1">
+      <c r="A81" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B81" s="6" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="61" ht="34" customHeight="1">
-      <c r="A61" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B61" s="5" t="s">
+      <c r="C81" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="C61" s="5" t="s">
+    </row>
+    <row r="82" ht="51" customHeight="1">
+      <c r="A82" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B82" s="6" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="62" ht="34" customHeight="1">
-      <c r="A62" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B62" s="5" t="s">
+      <c r="C82" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="C62" s="5" t="s">
+    </row>
+    <row r="83" ht="68" customHeight="1">
+      <c r="A83" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="B83" s="6" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="63" ht="68" customHeight="1">
-      <c r="A63" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B63" s="5" t="s">
+      <c r="C83" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="C63" s="5" t="s">
+    </row>
+    <row r="84" ht="17" customHeight="1">
+      <c r="A84" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B84" s="6" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="64" ht="34" customHeight="1">
-      <c r="A64" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B64" s="5" t="s">
+      <c r="C84" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="C64" s="5" t="s">
+    </row>
+    <row r="85" ht="17" customHeight="1">
+      <c r="A85" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B85" s="6" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="65" ht="34" customHeight="1">
-      <c r="A65" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B65" s="5" t="s">
+      <c r="C85" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="C65" s="5" t="s">
+    </row>
+    <row r="86">
+      <c r="A86" s="6"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B87" s="5" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="66" ht="34" customHeight="1">
-      <c r="A66" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B66" s="5" t="s">
+      <c r="C87" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="C66" s="5" t="s">
+    </row>
+    <row r="88" ht="85" customHeight="1">
+      <c r="A88" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="B88" s="6" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B68" s="4" t="s">
+      <c r="C88" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="C68" s="4" t="s">
+    </row>
+    <row r="89" ht="51" customHeight="1">
+      <c r="A89" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B89" s="6" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="69" ht="17" customHeight="1">
-      <c r="A69" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B69" s="5" t="s">
+      <c r="C89" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="C69" s="5" t="s">
+    </row>
+    <row r="90" ht="34" customHeight="1">
+      <c r="A90" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B90" s="6" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="70" ht="17" customHeight="1">
-      <c r="A70" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B70" s="5" t="s">
+      <c r="C90" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="C70" s="5" t="s">
+    </row>
+    <row r="92">
+      <c r="A92" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B92" s="5" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="71" ht="17" customHeight="1">
-      <c r="A71" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B71" s="5" t="s">
+      <c r="C92" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="C71" s="5" t="s">
+    </row>
+    <row r="93" ht="51" customHeight="1">
+      <c r="A93" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B93" s="6" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="72" ht="34" customHeight="1">
-      <c r="A72" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B72" s="5" t="s">
+      <c r="C93" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="C72" s="5" t="s">
+    </row>
+    <row r="94" ht="51" customHeight="1">
+      <c r="A94" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B94" s="6" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="73" ht="17" customHeight="1">
-      <c r="A73" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B73" s="5" t="s">
+      <c r="C94" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="C73" s="5" t="s">
+    </row>
+    <row r="95" ht="85" customHeight="1">
+      <c r="A95" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B95" s="6" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="74" ht="17" customHeight="1">
-      <c r="A74" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B74" s="5" t="s">
+      <c r="C95" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="C74" s="5" t="s">
+    </row>
+    <row r="96" ht="85" customHeight="1">
+      <c r="A96" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B96" s="6" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="75" ht="34" customHeight="1">
-      <c r="A75" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B75" s="5" t="s">
+      <c r="C96" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="C75" s="5" t="s">
+    </row>
+    <row r="97" ht="34" customHeight="1">
+      <c r="A97" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B97" s="6" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B78" s="4" t="s">
+      <c r="C97" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="C78" s="4" t="s">
+    </row>
+    <row r="98" ht="34" customHeight="1">
+      <c r="A98" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B98" s="6" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="79" ht="34" customHeight="1">
-      <c r="A79" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B79" s="5" t="s">
+      <c r="C98" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="C79" s="5" t="s">
+    </row>
+    <row r="99" ht="51" customHeight="1">
+      <c r="A99" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B99" s="6" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="80" ht="17" customHeight="1">
-      <c r="A80" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B80" s="5" t="s">
+      <c r="C99" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="C80" s="5" t="s">
+    </row>
+    <row r="100" ht="51" customHeight="1">
+      <c r="A100" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B100" s="6" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="81" ht="51" customHeight="1">
-      <c r="A81" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B81" s="5" t="s">
+      <c r="C100" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="C81" s="5" t="s">
+    </row>
+    <row r="102">
+      <c r="A102" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B102" s="5" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="82" ht="34" customHeight="1">
-      <c r="A82" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B82" s="5" t="s">
+      <c r="C102" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="C82" s="5" t="s">
+    </row>
+    <row r="103" ht="34" customHeight="1">
+      <c r="A103" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="104" ht="51" customHeight="1">
+      <c r="A104" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="105" ht="85" customHeight="1">
+      <c r="A105" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B107" s="5" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="83" ht="68" customHeight="1">
-      <c r="A83" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B83" s="5" t="s">
+      <c r="C107" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="C83" s="5" t="s">
+    </row>
+    <row r="108" ht="68" customHeight="1">
+      <c r="A108" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B108" s="6" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="84" ht="51" customHeight="1">
-      <c r="A84" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B84" s="5" t="s">
+      <c r="C108" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="C84" s="5" t="s">
+    </row>
+    <row r="109" ht="51" customHeight="1">
+      <c r="A109" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B109" s="6" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="85" ht="17" customHeight="1">
-      <c r="A85" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B85" s="5" t="s">
+      <c r="C109" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="C85" s="5" t="s">
+    </row>
+    <row r="110" ht="51" customHeight="1">
+      <c r="A110" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="B110" s="6" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="86" ht="17" customHeight="1">
-      <c r="A86" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B86" s="5" t="s">
+      <c r="C110" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="C86" s="5" t="s">
+    </row>
+    <row r="111" ht="51" customHeight="1">
+      <c r="A111" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B111" s="6" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="87" ht="17" customHeight="1">
-      <c r="A87" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B87" s="5" t="s">
+      <c r="C111" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="C87" s="5" t="s">
+    </row>
+    <row r="112" ht="34" customHeight="1">
+      <c r="A112" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B112" s="6" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="88" ht="51" customHeight="1">
-      <c r="A88" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B88" s="5" t="s">
+      <c r="C112" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="C88" s="5" t="s">
+    </row>
+    <row r="113" ht="34" customHeight="1">
+      <c r="A113" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B113" s="6" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="89" ht="17" customHeight="1">
-      <c r="A89" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B89" s="5" t="s">
+      <c r="C113" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="C89" s="5" t="s">
+    </row>
+    <row r="114" ht="34" customHeight="1">
+      <c r="A114" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B114" s="6" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="90" ht="17" customHeight="1">
-      <c r="A90" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B90" s="5" t="s">
+      <c r="C114" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="C90" s="5" t="s">
+    </row>
+    <row r="116">
+      <c r="A116" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B116" s="5" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="5"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B92" s="4" t="s">
+      <c r="C116" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="C92" s="4" t="s">
+    </row>
+    <row r="117" ht="34" customHeight="1">
+      <c r="A117" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="B117" s="6" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="93" ht="51" customHeight="1">
-      <c r="A93" s="5" t="s">
+      <c r="C117" s="6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="118" ht="51" customHeight="1">
+      <c r="A118" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="119" ht="34" customHeight="1">
+      <c r="A119" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B93" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="94" ht="51" customHeight="1">
-      <c r="A94" s="5" t="s">
+      <c r="B119" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="120" ht="34" customHeight="1">
+      <c r="A120" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B94" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="95" ht="34" customHeight="1">
-      <c r="A95" s="5" t="s">
+      <c r="B120" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="121" ht="34" customHeight="1">
+      <c r="A121" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B95" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="96" ht="68" customHeight="1">
-      <c r="A96" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="C96" s="5" t="s">
+      <c r="B121" s="6" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="97" ht="34" customHeight="1">
-      <c r="A97" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B97" s="5" t="s">
+      <c r="C121" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="C97" s="5" t="s">
+    </row>
+    <row r="123" ht="17" customHeight="1">
+      <c r="A123" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="B123" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="C123" s="11" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="98" ht="34" customHeight="1">
-      <c r="A98" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B98" s="5" t="s">
+      <c r="B124" t="s">
         <v>269</v>
       </c>
-      <c r="C98" s="5" t="s">
+      <c r="C124" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="99" ht="34" customHeight="1">
-      <c r="A99" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="100" ht="34" customHeight="1">
-      <c r="A100" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="101" ht="34" customHeight="1">
-      <c r="A101" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="102" ht="34" customHeight="1">
-      <c r="A102" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B102" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="C102" s="5" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="105" ht="34" customHeight="1">
-      <c r="A105" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B105" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="C105" s="5" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="106" ht="51" customHeight="1">
-      <c r="A106" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B106" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="C106" s="5" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="107" ht="51" customHeight="1">
-      <c r="A107" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B107" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="C107" s="5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="108" ht="85" customHeight="1">
-      <c r="A108" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B108" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="C108" s="5" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="109" ht="85" customHeight="1">
-      <c r="A109" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="C109" s="5" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="110" ht="34" customHeight="1">
-      <c r="A110" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B110" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="C110" s="5" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="111" ht="34" customHeight="1">
-      <c r="A111" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B111" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="C111" s="5" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="112" ht="51" customHeight="1">
-      <c r="A112" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B112" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="C112" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="113" ht="51" customHeight="1">
-      <c r="A113" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B113" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="116" ht="68" customHeight="1">
-      <c r="A116" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B116" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="C116" s="5" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="117" ht="34" customHeight="1">
-      <c r="A117" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B117" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="C117" s="5" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="118" ht="68" customHeight="1">
-      <c r="A118" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B118" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="C118" s="5" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="C120" s="4" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="121" ht="68" customHeight="1">
-      <c r="A121" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B121" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="C121" s="5" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="122" ht="51" customHeight="1">
-      <c r="A122" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B122" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="C122" s="5" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="123" ht="51" customHeight="1">
-      <c r="A123" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B123" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="C123" s="5" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="124" ht="51" customHeight="1">
-      <c r="A124" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B124" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C124" s="5" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="125" ht="34" customHeight="1">
-      <c r="A125" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B125" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="C125" s="5" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="126" ht="34" customHeight="1">
-      <c r="A126" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B126" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="C126" s="5" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="127" ht="34" customHeight="1">
-      <c r="A127" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B127" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="C127" s="5" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B129" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="C129" s="4" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="130" ht="34" customHeight="1">
-      <c r="A130" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B130" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="C130" s="5" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="131" ht="51" customHeight="1">
-      <c r="A131" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B131" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="C131" s="5" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="132" ht="34" customHeight="1">
-      <c r="A132" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B132" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="C132" s="5" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="133" ht="34" customHeight="1">
-      <c r="A133" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B133" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="C133" s="5" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="134" ht="34" customHeight="1">
-      <c r="A134" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B134" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="C134" s="5" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="136" ht="17" customHeight="1">
-      <c r="A136" s="8" t="s">
-        <v>402</v>
-      </c>
-      <c r="B136" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="C136" s="9" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="s">
+    <row r="125">
+      <c r="A125" t="s">
         <v>335</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B125" t="s">
         <v>336</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C125" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" t="s">
-        <v>405</v>
-      </c>
-      <c r="B138" t="s">
-        <v>406</v>
-      </c>
-      <c r="C138" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="139" ht="17" customHeight="1">
-      <c r="A139" t="s">
-        <v>408</v>
-      </c>
-      <c r="B139" s="5" t="s">
-        <v>409</v>
-      </c>
-      <c r="C139" s="5" t="s">
-        <v>410</v>
+    <row r="126" ht="17" customHeight="1">
+      <c r="A126" t="s">
+        <v>338</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>340</v>
       </c>
     </row>
   </sheetData>

--- a/STEPS_data_analysis/excel_templates/data_fromR.xlsx
+++ b/STEPS_data_analysis/excel_templates/data_fromR.xlsx
@@ -1,20 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\R\GitHub current\STEPS_data_analysis\excel_templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B991391-5037-40BE-9CF5-0B445D09A9B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7140" yWindow="1500" windowWidth="14670" windowHeight="13020" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="languages" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="languages" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="320">
   <si>
     <t>ind_level</t>
   </si>
@@ -706,270 +726,281 @@
     <t>bm1l1</t>
   </si>
   <si>
-    <t>of the population aged 18-69 have 3 to 5 risk factors</t>
-  </si>
-  <si>
-    <t>of the population aged 18-69 have 0 risk factors</t>
-  </si>
-  <si>
-    <t>of the population aged 18-69 have 1 to 2 risk factors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tobacco Use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">of the population are current smokers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">of men</t>
-  </si>
-  <si>
-    <t xml:space="preserve">of women</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Among current smokers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">smoke daily</t>
-  </si>
-  <si>
-    <t xml:space="preserve">smoke manufactured cigarettes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">smoke hand-rolled cigarettes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">smoke cigars, cheroots or cigarillos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">smoke pipes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">smoke shisha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">have tried to stop smoking during the past 12 months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">of the population are current smokeless users</t>
-  </si>
-  <si>
-    <t xml:space="preserve">of the population currently use any tobacco products</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alcohol Use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">of the population are current drinkers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">of 18-44 years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">of 45-69 years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">are current drinkers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">of the population are lifetime abstainers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heavy episodic drinking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">of the population consumed 6 or more drinks on one occasion in the past 30 days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">of men consumed 6 or more drinks on one occasion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">of women consumed 6 or more drinks on one occasion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean number of days fruits are consumed in a typical week</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean number of days vegetables consumed in a typical week</t>
-  </si>
-  <si>
-    <t xml:space="preserve">of the population eat less than 5 servings of fruit and/or vegetables per day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">of the population do not eat any fruit or vegetables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">of the population always or often eat processed foods high in salt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean number of grams of salt consumed per day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Physical Activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">of the population are not meeting WHO's recommendation for physical activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Among women …</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Among men …</t>
-  </si>
-  <si>
-    <t xml:space="preserve">are not meeting WHO's recommendation for physical activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">are not engaging in any vigorous physical activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">of the population do not do any work-related activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">of the population do not do any transport-related activity e.g. walking or cycling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">of the population do not do any activity in their leisure time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average time spent in sedentary activity per day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">minutes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hours</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Body Mass Index</t>
-  </si>
-  <si>
-    <t xml:space="preserve">of the population are overweight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">of men are overweight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">of women are overweight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">of the population are obese</t>
-  </si>
-  <si>
-    <t xml:space="preserve">of men are obese</t>
-  </si>
-  <si>
-    <t xml:space="preserve">of women are obese</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raised Blood Pressure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">of the population have raised blood pressure or are currently on medication for raised blood pressure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Of those …</t>
-  </si>
-  <si>
-    <t xml:space="preserve">have been previously diagnosed with raised blood pressure (aware)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">are taking medication for their raised blood pressure (treated)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">have their blood pressure under control (controlled)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raised Blood Sugar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">of the population have raised blood sugar or are currently on medication for diabetes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">are currently receiving treatment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">of the population have never had their blood sugar measured</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raised Total Cholesterol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">of the population have raised total cholesterol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">of men have low HDL (good cholesterol)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">of women have low HDL (good cholesterol)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cardiovascular Disease</t>
-  </si>
-  <si>
-    <t xml:space="preserve">of the population aged 40-69 years have a 10-year CVD risk ≥20% or have existing CVD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">of which</t>
-  </si>
-  <si>
-    <t xml:space="preserve">are receiving drug therapy and counselling to prevent heart attacks and strokes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lifestyle Advice*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">* advice received in the past 12 months from a health worker, among the total population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">were advised to quit smoking or not start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">were advised to lower the salt content in their food</t>
-  </si>
-  <si>
-    <t xml:space="preserve">were advised to eat at least five portions of fruit and vegetables a day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">were advised to reduce fat in their diet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">were advised to do more physical activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">were advised to maintain healthy weight/lose weight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">were advised to reduce sugary drinks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multiple Risk Factors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">of the population have 3 to 5 risk factors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">of the population have 1to 2 risk factors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">of the population have 0 risk factors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">of 18-44 year olds have 3 to 5 risk factors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">of 45-69 year olds have 3 to 5 risk factors</t>
+    <t>Tobacco Use</t>
+  </si>
+  <si>
+    <t>of the population are current smokers</t>
+  </si>
+  <si>
+    <t>of men</t>
+  </si>
+  <si>
+    <t>of women</t>
+  </si>
+  <si>
+    <t>Among current smokers</t>
+  </si>
+  <si>
+    <t>smoke daily</t>
+  </si>
+  <si>
+    <t>smoke manufactured cigarettes</t>
+  </si>
+  <si>
+    <t>smoke hand-rolled cigarettes</t>
+  </si>
+  <si>
+    <t>smoke cigars, cheroots or cigarillos</t>
+  </si>
+  <si>
+    <t>smoke pipes</t>
+  </si>
+  <si>
+    <t>smoke shisha</t>
+  </si>
+  <si>
+    <t>have tried to stop smoking during the past 12 months</t>
+  </si>
+  <si>
+    <t>of the population are current smokeless users</t>
+  </si>
+  <si>
+    <t>of the population currently use any tobacco products</t>
+  </si>
+  <si>
+    <t>Alcohol Use</t>
+  </si>
+  <si>
+    <t>of the population are current drinkers</t>
+  </si>
+  <si>
+    <t>of 18-44 years</t>
+  </si>
+  <si>
+    <t>of 45-69 years</t>
+  </si>
+  <si>
+    <t>are current drinkers</t>
+  </si>
+  <si>
+    <t>of the population are lifetime abstainers</t>
+  </si>
+  <si>
+    <t>Heavy episodic drinking</t>
+  </si>
+  <si>
+    <t>of the population consumed 6 or more drinks on one occasion in the past 30 days</t>
+  </si>
+  <si>
+    <t>of men consumed 6 or more drinks on one occasion</t>
+  </si>
+  <si>
+    <t>of women consumed 6 or more drinks on one occasion</t>
+  </si>
+  <si>
+    <t>Diet</t>
+  </si>
+  <si>
+    <t>mean number of days fruits are consumed in a typical week</t>
+  </si>
+  <si>
+    <t>mean number of days vegetables consumed in a typical week</t>
+  </si>
+  <si>
+    <t>of the population eat less than 5 servings of fruit and/or vegetables per day</t>
+  </si>
+  <si>
+    <t>of the population do not eat any fruit or vegetables</t>
+  </si>
+  <si>
+    <t>of the population always or often eat processed foods high in salt</t>
+  </si>
+  <si>
+    <t>mean number of grams of salt consumed per day</t>
+  </si>
+  <si>
+    <t>Physical Activity</t>
+  </si>
+  <si>
+    <t>of the population are not meeting WHO's recommendation for physical activity</t>
+  </si>
+  <si>
+    <t>Among women …</t>
+  </si>
+  <si>
+    <t>Among men …</t>
+  </si>
+  <si>
+    <t>are not meeting WHO's recommendation for physical activity</t>
+  </si>
+  <si>
+    <t>are not engaging in any vigorous physical activity</t>
+  </si>
+  <si>
+    <t>of the population do not do any work-related activity</t>
+  </si>
+  <si>
+    <t>of the population do not do any transport-related activity e.g. walking or cycling</t>
+  </si>
+  <si>
+    <t>of the population do not do any activity in their leisure time</t>
+  </si>
+  <si>
+    <t>Average time spent in sedentary activity per day</t>
+  </si>
+  <si>
+    <t>minutes</t>
+  </si>
+  <si>
+    <t>hours</t>
+  </si>
+  <si>
+    <t>Body Mass Index</t>
+  </si>
+  <si>
+    <t>of men are overweight</t>
+  </si>
+  <si>
+    <t>of women are overweight</t>
+  </si>
+  <si>
+    <t>of men are obese</t>
+  </si>
+  <si>
+    <t>of women are obese</t>
+  </si>
+  <si>
+    <t>Raised Blood Pressure</t>
+  </si>
+  <si>
+    <t>Of those …</t>
+  </si>
+  <si>
+    <t>have been previously diagnosed with raised blood pressure (aware)</t>
+  </si>
+  <si>
+    <t>are taking medication for their raised blood pressure (treated)</t>
+  </si>
+  <si>
+    <t>have their blood pressure under control (controlled)</t>
+  </si>
+  <si>
+    <t>Raised Blood Sugar</t>
+  </si>
+  <si>
+    <t>are currently receiving treatment</t>
+  </si>
+  <si>
+    <t>of the population have never had their blood sugar measured</t>
+  </si>
+  <si>
+    <t>Raised Total Cholesterol</t>
+  </si>
+  <si>
+    <t>Cardiovascular Disease</t>
+  </si>
+  <si>
+    <t>of the population aged 40-69 years have a 10-year CVD risk ≥20% or have existing CVD</t>
+  </si>
+  <si>
+    <t>of which</t>
+  </si>
+  <si>
+    <t>are receiving drug therapy and counselling to prevent heart attacks and strokes</t>
+  </si>
+  <si>
+    <t>Lifestyle Advice*</t>
+  </si>
+  <si>
+    <t>* advice received in the past 12 months from a health worker, among the total population</t>
+  </si>
+  <si>
+    <t>were advised to quit smoking or not start</t>
+  </si>
+  <si>
+    <t>were advised to lower the salt content in their food</t>
+  </si>
+  <si>
+    <t>were advised to eat at least five portions of fruit and vegetables a day</t>
+  </si>
+  <si>
+    <t>were advised to reduce fat in their diet</t>
+  </si>
+  <si>
+    <t>were advised to do more physical activity</t>
+  </si>
+  <si>
+    <t>were advised to maintain healthy weight/lose weight</t>
+  </si>
+  <si>
+    <t>Multiple Risk Factors</t>
+  </si>
+  <si>
+    <t>of the population have 3 to 5 risk factors</t>
+  </si>
+  <si>
+    <t>of the population have 1to 2 risk factors</t>
+  </si>
+  <si>
+    <t>of the population have 0 risk factors</t>
+  </si>
+  <si>
+    <t>of 18-44 year olds have 3 to 5 risk factors</t>
+  </si>
+  <si>
+    <t>of 45-69 year olds have 3 to 5 risk factors</t>
+  </si>
+  <si>
+    <t>of the population have raised blood pressure* or are currently on medication for raised blood pressure</t>
+  </si>
+  <si>
+    <t>of the population have raised blood sugar* or are currently on medication for diabetes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* ≥ 190 mg/dl </t>
+  </si>
+  <si>
+    <t>* ≥ 126 mg/dl</t>
+  </si>
+  <si>
+    <t>of the population have raised total cholesterol* or currently on medication for raised cholesterol</t>
+  </si>
+  <si>
+    <t>* SBP ≥ 140 and/or DBP ≥ 90 mmHg</t>
+  </si>
+  <si>
+    <t>of the population are overweight*</t>
+  </si>
+  <si>
+    <t>* BMI ≥ 25</t>
+  </si>
+  <si>
+    <t>of the population are obese**</t>
+  </si>
+  <si>
+    <t>** BMI ≥ 30</t>
+  </si>
+  <si>
+    <t>of men have low HDL** (good cholesterol)</t>
+  </si>
+  <si>
+    <t>of women have low HDL*** (good cholesterol)</t>
+  </si>
+  <si>
+    <t>** &lt; 40 mg/d</t>
+  </si>
+  <si>
+    <t>*** &lt; 50 mg/d</t>
+  </si>
+  <si>
+    <t>were advised to reduce sugary beverages in their diet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -978,12 +1009,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <b/>
     </font>
     <font>
       <sz val="12"/>
@@ -997,14 +1028,7 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
       <b/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1016,7 +1040,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1028,13 +1059,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor rgb="FFB48632"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB48632"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1054,7 +1085,6 @@
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1067,6 +1097,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1383,40 +1414,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D107"/>
   <sheetViews>
-    <sheetView tabSelected="true" topLeftCell="A89" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C103" sqref="C103"/>
+    <sheetView tabSelected="1" topLeftCell="A95" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="J103" sqref="J103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.875" hidden="0" customWidth="1"/>
-    <col min="3" max="3" width="58.625" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="13.875" customWidth="1"/>
+    <col min="3" max="3" width="58.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="D2"/>
-    </row>
-    <row r="3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>96</v>
       </c>
@@ -1424,47 +1454,46 @@
         <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>234</v>
-      </c>
-      <c r="D3" t="n">
+        <v>231</v>
+      </c>
+      <c r="D3">
         <v>0.107647579325821</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>96</v>
       </c>
       <c r="B4" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="C4" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="D4">
         <v>0.164356428207314</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>96</v>
       </c>
       <c r="B5" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.00392142233964398</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="C5" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="D5">
+        <v>3.9214223396439804E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>237</v>
-      </c>
-      <c r="D6"/>
-    </row>
-    <row r="7">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>105</v>
       </c>
@@ -1472,11 +1501,13 @@
         <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>238</v>
-      </c>
-      <c r="D7"/>
-    </row>
-    <row r="8">
+        <v>235</v>
+      </c>
+      <c r="D7">
+        <v>0.774292345562961</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>48</v>
       </c>
@@ -1484,11 +1515,13 @@
         <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>239</v>
-      </c>
-      <c r="D8"/>
-    </row>
-    <row r="9">
+        <v>236</v>
+      </c>
+      <c r="D8">
+        <v>0.82515702352568698</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>49</v>
       </c>
@@ -1496,11 +1529,13 @@
         <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>240</v>
-      </c>
-      <c r="D9"/>
-    </row>
-    <row r="10">
+        <v>237</v>
+      </c>
+      <c r="D9">
+        <v>0.15418665007707899</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>51</v>
       </c>
@@ -1508,11 +1543,13 @@
         <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>241</v>
-      </c>
-      <c r="D10"/>
-    </row>
-    <row r="11">
+        <v>238</v>
+      </c>
+      <c r="D10">
+        <v>9.5096432821885707E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -1520,11 +1557,13 @@
         <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>242</v>
-      </c>
-      <c r="D11"/>
-    </row>
-    <row r="12">
+        <v>239</v>
+      </c>
+      <c r="D11">
+        <v>0.15843615169165201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>52</v>
       </c>
@@ -1532,11 +1571,13 @@
         <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>243</v>
-      </c>
-      <c r="D12"/>
-    </row>
-    <row r="13">
+        <v>240</v>
+      </c>
+      <c r="D12">
+        <v>0.15247961852986699</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>53</v>
       </c>
@@ -1544,57 +1585,60 @@
         <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>244</v>
-      </c>
-      <c r="D13"/>
-    </row>
-    <row r="14">
+        <v>241</v>
+      </c>
+      <c r="D13">
+        <v>0.41549284252940599</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>54</v>
       </c>
       <c r="B14" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D14"/>
-    </row>
-    <row r="15">
+      <c r="D14">
+        <v>0.35521875596033697</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>57</v>
       </c>
       <c r="B15" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="D15"/>
-    </row>
-    <row r="16">
+      <c r="C15" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D15">
+        <v>1.2447157214614901E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>106</v>
       </c>
       <c r="B16" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="D16"/>
-    </row>
-    <row r="17">
-      <c r="C17"/>
-      <c r="D17"/>
-    </row>
-    <row r="18">
-      <c r="C18" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="D18"/>
-    </row>
-    <row r="19">
+      <c r="C16" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D16">
+        <v>0.11498828540660599</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>58</v>
       </c>
@@ -1602,65 +1646,74 @@
         <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>248</v>
-      </c>
-      <c r="D19"/>
-    </row>
-    <row r="20">
+        <v>245</v>
+      </c>
+      <c r="D19">
+        <v>1.4477027660706999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>58</v>
       </c>
       <c r="B20" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="D20"/>
-    </row>
-    <row r="21">
+      <c r="C20" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="D20">
+        <v>2.0592588741272101E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>58</v>
       </c>
       <c r="B21" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="D21"/>
-    </row>
-    <row r="22">
+      <c r="C21" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="D21">
+        <v>3.2910537951909499E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>58</v>
       </c>
       <c r="B22" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="D22"/>
-    </row>
-    <row r="23">
+      <c r="C22" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="D22">
+        <v>1.5221667008201401E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>58</v>
       </c>
       <c r="B23" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="D23"/>
-    </row>
-    <row r="24">
-      <c r="C24" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="D24"/>
-    </row>
-    <row r="25">
+      <c r="C23" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="D23">
+        <v>1.59929510618744E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C24" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>59</v>
       </c>
@@ -1668,767 +1721,855 @@
         <v>45</v>
       </c>
       <c r="C25" t="s">
-        <v>252</v>
-      </c>
-      <c r="D25"/>
-    </row>
-    <row r="26">
-      <c r="C26" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="D26"/>
-    </row>
-    <row r="27" ht="31.5" customHeight="1">
+        <v>249</v>
+      </c>
+      <c r="D25">
+        <v>0.96305316948442699</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C26" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>60</v>
       </c>
       <c r="B27" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="D27"/>
-    </row>
-    <row r="28">
+      <c r="C27" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="D27">
+        <v>8.3692474683789205E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>60</v>
       </c>
       <c r="B28" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="D28"/>
-    </row>
-    <row r="29">
+      <c r="C28" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D28">
+        <v>1.2953050039842299E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>60</v>
       </c>
       <c r="B29" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="D29"/>
-    </row>
-    <row r="30">
-      <c r="C30"/>
-      <c r="D30"/>
-    </row>
-    <row r="31">
-      <c r="C31" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="D31"/>
-    </row>
-    <row r="32">
-      <c r="C32" s="7" t="s">
+      <c r="C29" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="D29">
+        <v>2.3420317989769998E-12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C31" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C32" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D32"/>
-    </row>
-    <row r="33">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>61</v>
       </c>
       <c r="B33" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="D33"/>
-    </row>
-    <row r="34">
+      <c r="C33" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="D33">
+        <v>4.6268615662888202</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>62</v>
       </c>
       <c r="B34" t="s">
         <v>45</v>
       </c>
-      <c r="C34" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="D34"/>
-    </row>
-    <row r="35" ht="31.5" customHeight="1">
+      <c r="C34" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="D34">
+        <v>5.5982828949268901</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>63</v>
       </c>
       <c r="B35" t="s">
         <v>45</v>
       </c>
-      <c r="C35" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="D35"/>
-    </row>
-    <row r="36">
+      <c r="C35" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="D35">
+        <v>0.64835113246084297</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>64</v>
       </c>
       <c r="B36" t="s">
         <v>45</v>
       </c>
-      <c r="C36" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="D36"/>
-    </row>
-    <row r="37">
+      <c r="C36" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="D36">
+        <v>8.1973191506034299E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>65</v>
       </c>
       <c r="B37" t="s">
         <v>45</v>
       </c>
-      <c r="C37" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="D37"/>
-    </row>
-    <row r="38">
+      <c r="C37" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="D37">
+        <v>0.15486217632726601</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>115</v>
       </c>
       <c r="B38" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="D38"/>
-    </row>
-    <row r="39">
-      <c r="C39"/>
-      <c r="D39"/>
-    </row>
-    <row r="40">
-      <c r="C40" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="D40"/>
-    </row>
-    <row r="41" ht="31.5" customHeight="1">
+      <c r="C38" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="D38">
+        <v>8.5724624149886992</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C40" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>66</v>
       </c>
       <c r="B41" t="s">
         <v>45</v>
       </c>
-      <c r="C41" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="D41"/>
-    </row>
-    <row r="42">
-      <c r="C42" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="D42"/>
-    </row>
-    <row r="43">
-      <c r="C43" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="D43"/>
-    </row>
-    <row r="44">
+      <c r="C41" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="D41">
+        <v>0.282180067039838</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C42" s="6" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C43" s="6" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>66</v>
       </c>
       <c r="B44" t="s">
         <v>46</v>
       </c>
-      <c r="C44" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="D44"/>
-    </row>
-    <row r="45">
+      <c r="C44" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="D44">
+        <v>0.23752795840007701</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>66</v>
       </c>
       <c r="B45" t="s">
         <v>47</v>
       </c>
-      <c r="C45" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="D45"/>
-    </row>
-    <row r="46">
+      <c r="C45" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="D45">
+        <v>0.36351765165317801</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>67</v>
       </c>
       <c r="B46" t="s">
         <v>46</v>
       </c>
-      <c r="C46" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="D46"/>
-    </row>
-    <row r="47">
+      <c r="C46" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="D46">
+        <v>0.64875401320257398</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>67</v>
       </c>
       <c r="B47" t="s">
         <v>47</v>
       </c>
-      <c r="C47" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="D47"/>
-    </row>
-    <row r="48">
+      <c r="C47" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="D47">
+        <v>0.919905639690629</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>68</v>
       </c>
       <c r="B48" t="s">
         <v>45</v>
       </c>
-      <c r="C48" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="D48"/>
-    </row>
-    <row r="49" ht="31.5" customHeight="1">
+      <c r="C48" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="D48">
+        <v>0.52713003846956996</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>69</v>
       </c>
       <c r="B49" t="s">
         <v>45</v>
       </c>
-      <c r="C49" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="D49"/>
-    </row>
-    <row r="50">
+      <c r="C49" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="D49">
+        <v>0.32529403957074299</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>70</v>
       </c>
       <c r="B50" t="s">
         <v>45</v>
       </c>
-      <c r="C50" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="D50"/>
-    </row>
-    <row r="51">
+      <c r="C50" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="D50">
+        <v>0.55772081797472695</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>71</v>
       </c>
       <c r="B51" t="s">
         <v>45</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="D51">
+        <v>190.242550752619</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C52" s="6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C53" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C55" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="D51"/>
-    </row>
-    <row r="52">
-      <c r="C52" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="D52"/>
-    </row>
-    <row r="53">
-      <c r="C53" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="D53"/>
-    </row>
-    <row r="54">
-      <c r="C54"/>
-      <c r="D54"/>
-    </row>
-    <row r="55">
-      <c r="C55" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D55"/>
-    </row>
-    <row r="56">
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>73</v>
       </c>
       <c r="B56" t="s">
         <v>45</v>
       </c>
-      <c r="C56" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="D56"/>
-    </row>
-    <row r="57">
+      <c r="C56" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="D56">
+        <v>0.62877735216816799</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>73</v>
       </c>
       <c r="B57" t="s">
         <v>46</v>
       </c>
-      <c r="C57" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="D57"/>
-    </row>
-    <row r="58">
+      <c r="C57" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="D57">
+        <v>0.61557366434485405</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>73</v>
       </c>
       <c r="B58" t="s">
         <v>47</v>
       </c>
-      <c r="C58" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="D58"/>
-    </row>
-    <row r="59">
+      <c r="C58" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="D58">
+        <v>0.65418662289396901</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>72</v>
       </c>
       <c r="B59" t="s">
         <v>45</v>
       </c>
-      <c r="C59" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="D59"/>
-    </row>
-    <row r="60">
+      <c r="C59" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="D59">
+        <v>0.27152906497961798</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>72</v>
       </c>
       <c r="B60" t="s">
         <v>46</v>
       </c>
-      <c r="C60" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="D60"/>
-    </row>
-    <row r="61">
+      <c r="C60" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="D60">
+        <v>0.22536652560019499</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>72</v>
       </c>
       <c r="B61" t="s">
         <v>47</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C61" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="D61">
+        <v>0.36036458547335298</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C62" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C63" s="6" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C65" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>74</v>
+      </c>
+      <c r="B66" t="s">
+        <v>45</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="D66">
+        <v>0.27681126607406997</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C67" s="6" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>92</v>
+      </c>
+      <c r="B68" t="s">
+        <v>45</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="D68">
+        <v>0.322874793852646</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>75</v>
+      </c>
+      <c r="B69" t="s">
+        <v>45</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="D69">
+        <v>0.26436590212753303</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>76</v>
+      </c>
+      <c r="B70" t="s">
+        <v>45</v>
+      </c>
+      <c r="C70" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="D61"/>
-    </row>
-    <row r="62">
-      <c r="C62"/>
-      <c r="D62"/>
-    </row>
-    <row r="63">
-      <c r="C63" s="2" t="s">
+      <c r="D70">
+        <v>0.106390625259793</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C71" s="6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C72" s="6"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C73" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="D63"/>
-    </row>
-    <row r="64" ht="31.5" customHeight="1">
-      <c r="A64" t="s">
-        <v>74</v>
-      </c>
-      <c r="B64" t="s">
-        <v>45</v>
-      </c>
-      <c r="C64" s="7" t="s">
+    </row>
+    <row r="74" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>133</v>
+      </c>
+      <c r="B74" t="s">
+        <v>45</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="D74">
+        <v>0.1281915802228</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>95</v>
+      </c>
+      <c r="B75" t="s">
+        <v>45</v>
+      </c>
+      <c r="C75" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="D64"/>
-    </row>
-    <row r="65">
-      <c r="C65" s="7" t="s">
+      <c r="D75">
+        <v>0.52937855991958904</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>89</v>
+      </c>
+      <c r="B76" t="s">
+        <v>45</v>
+      </c>
+      <c r="C76" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="D65"/>
-    </row>
-    <row r="66">
-      <c r="A66" t="s">
-        <v>92</v>
-      </c>
-      <c r="B66" t="s">
-        <v>45</v>
-      </c>
-      <c r="C66" s="7" t="s">
+      <c r="D76">
+        <v>0.303991401172785</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C77" s="6" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C78" s="6"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C79" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="D66"/>
-    </row>
-    <row r="67">
-      <c r="A67" t="s">
-        <v>75</v>
-      </c>
-      <c r="B67" t="s">
-        <v>45</v>
-      </c>
-      <c r="C67" s="7" t="s">
+    </row>
+    <row r="80" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>229</v>
+      </c>
+      <c r="B80" t="s">
+        <v>45</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="D80">
+        <v>0.29079494611724699</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B81" t="s">
+        <v>46</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="D81">
+        <v>0.68434528118692395</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B82" t="s">
+        <v>47</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="D82">
+        <v>0.68081723970028096</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="7"/>
+      <c r="C83" s="6" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="7"/>
+      <c r="C84" s="6" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="7"/>
+      <c r="C85" s="6" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C87" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="D67"/>
-    </row>
-    <row r="68">
-      <c r="A68" t="s">
-        <v>76</v>
-      </c>
-      <c r="B68" t="s">
-        <v>45</v>
-      </c>
-      <c r="C68" s="7" t="s">
+    </row>
+    <row r="88" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>93</v>
+      </c>
+      <c r="B88" t="s">
+        <v>45</v>
+      </c>
+      <c r="C88" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="D68"/>
-    </row>
-    <row r="69">
-      <c r="C69" s="7"/>
-      <c r="D69"/>
-    </row>
-    <row r="70">
-      <c r="C70" s="2" t="s">
+      <c r="D88">
+        <v>6.9820593077772899E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C89" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="D70"/>
-    </row>
-    <row r="71" ht="31.5" customHeight="1">
-      <c r="A71" t="s">
-        <v>133</v>
-      </c>
-      <c r="B71" t="s">
-        <v>45</v>
-      </c>
-      <c r="C71" s="7" t="s">
+    </row>
+    <row r="90" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>94</v>
+      </c>
+      <c r="B90" t="s">
+        <v>45</v>
+      </c>
+      <c r="C90" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="D71"/>
-    </row>
-    <row r="72">
-      <c r="A72" t="s">
-        <v>95</v>
-      </c>
-      <c r="B72" t="s">
-        <v>45</v>
-      </c>
-      <c r="C72" s="7" t="s">
+      <c r="D90">
+        <v>0.63121018834652198</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C92" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="D72"/>
-    </row>
-    <row r="73">
-      <c r="A73" t="s">
-        <v>89</v>
-      </c>
-      <c r="B73" t="s">
-        <v>45</v>
-      </c>
-      <c r="C73" s="7" t="s">
+    </row>
+    <row r="93" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C93" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="D73"/>
-    </row>
-    <row r="74">
-      <c r="C74" s="7"/>
-      <c r="D74"/>
-    </row>
-    <row r="75">
-      <c r="C75" s="2" t="s">
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>80</v>
+      </c>
+      <c r="B94" t="s">
+        <v>45</v>
+      </c>
+      <c r="C94" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="D75"/>
-    </row>
-    <row r="76">
-      <c r="A76" t="s">
-        <v>229</v>
-      </c>
-      <c r="B76" t="s">
-        <v>45</v>
-      </c>
-      <c r="C76" s="7" t="s">
+      <c r="D94">
+        <v>9.5745108557744402E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>83</v>
+      </c>
+      <c r="B95" t="s">
+        <v>45</v>
+      </c>
+      <c r="C95" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="D76"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B77" t="s">
-        <v>46</v>
-      </c>
-      <c r="C77" s="7" t="s">
+      <c r="D95">
+        <v>0.21563755583890301</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>81</v>
+      </c>
+      <c r="B96" t="s">
+        <v>45</v>
+      </c>
+      <c r="C96" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="D77"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="B78" t="s">
-        <v>47</v>
-      </c>
-      <c r="C78" s="7" t="s">
+      <c r="D96">
+        <v>0.26289312564970402</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>84</v>
+      </c>
+      <c r="B97" t="s">
+        <v>45</v>
+      </c>
+      <c r="C97" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="D78"/>
-    </row>
-    <row r="79">
-      <c r="C79"/>
-      <c r="D79"/>
-    </row>
-    <row r="80">
-      <c r="C80" s="2" t="s">
+      <c r="D97">
+        <v>0.271424195470722</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>85</v>
+      </c>
+      <c r="B98" t="s">
+        <v>45</v>
+      </c>
+      <c r="C98" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="D80"/>
-    </row>
-    <row r="81" ht="31.5" customHeight="1">
-      <c r="A81" t="s">
-        <v>93</v>
-      </c>
-      <c r="B81" t="s">
-        <v>45</v>
-      </c>
-      <c r="C81" s="7" t="s">
+      <c r="D98">
+        <v>0.29532934422375501</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>86</v>
+      </c>
+      <c r="B99" t="s">
+        <v>45</v>
+      </c>
+      <c r="C99" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="D81"/>
-    </row>
-    <row r="82">
-      <c r="C82" s="7" t="s">
+      <c r="D99">
+        <v>0.27919456960889699</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>82</v>
+      </c>
+      <c r="B100" t="s">
+        <v>45</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="D100">
+        <v>0.27546177067159699</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C102" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="D82"/>
-    </row>
-    <row r="83" ht="31.5" customHeight="1">
-      <c r="A83" t="s">
-        <v>94</v>
-      </c>
-      <c r="B83" t="s">
-        <v>45</v>
-      </c>
-      <c r="C83" s="7" t="s">
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>77</v>
+      </c>
+      <c r="B103" t="s">
+        <v>45</v>
+      </c>
+      <c r="C103" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="D83"/>
-    </row>
-    <row r="84">
-      <c r="C84"/>
-      <c r="D84"/>
-    </row>
-    <row r="85">
-      <c r="C85" s="2" t="s">
+      <c r="D103">
+        <v>0.28742293759462201</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>78</v>
+      </c>
+      <c r="B104" t="s">
+        <v>45</v>
+      </c>
+      <c r="C104" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="D85"/>
-    </row>
-    <row r="86" ht="35.25" customHeight="1">
-      <c r="C86" s="7" t="s">
+      <c r="D104">
+        <v>0.64310901058187997</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>79</v>
+      </c>
+      <c r="B105" t="s">
+        <v>45</v>
+      </c>
+      <c r="C105" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="D86"/>
-    </row>
-    <row r="87">
-      <c r="A87" t="s">
-        <v>80</v>
-      </c>
-      <c r="B87" t="s">
-        <v>45</v>
-      </c>
-      <c r="C87" s="7" t="s">
+      <c r="D105">
+        <v>6.9468051844947004E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>77</v>
+      </c>
+      <c r="B106" t="s">
+        <v>55</v>
+      </c>
+      <c r="C106" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="D87"/>
-    </row>
-    <row r="88">
-      <c r="A88" t="s">
-        <v>83</v>
-      </c>
-      <c r="B88" t="s">
-        <v>45</v>
-      </c>
-      <c r="C88" s="7" t="s">
+      <c r="D106">
+        <v>0.24527101204722901</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>77</v>
+      </c>
+      <c r="B107" t="s">
+        <v>56</v>
+      </c>
+      <c r="C107" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="D88"/>
-    </row>
-    <row r="89" ht="31.5" customHeight="1">
-      <c r="A89" t="s">
-        <v>81</v>
-      </c>
-      <c r="B89" t="s">
-        <v>45</v>
-      </c>
-      <c r="C89" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="D89"/>
-    </row>
-    <row r="90">
-      <c r="A90" t="s">
-        <v>84</v>
-      </c>
-      <c r="B90" t="s">
-        <v>45</v>
-      </c>
-      <c r="C90" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="D90"/>
-    </row>
-    <row r="91">
-      <c r="A91" t="s">
-        <v>85</v>
-      </c>
-      <c r="B91" t="s">
-        <v>45</v>
-      </c>
-      <c r="C91" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="D91"/>
-    </row>
-    <row r="92">
-      <c r="A92" t="s">
-        <v>86</v>
-      </c>
-      <c r="B92" t="s">
-        <v>45</v>
-      </c>
-      <c r="C92" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="D92"/>
-    </row>
-    <row r="93">
-      <c r="A93" t="s">
-        <v>82</v>
-      </c>
-      <c r="B93" t="s">
-        <v>45</v>
-      </c>
-      <c r="C93" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="D93"/>
-    </row>
-    <row r="94">
-      <c r="C94"/>
-      <c r="D94"/>
-    </row>
-    <row r="95">
-      <c r="C95" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="D95"/>
-    </row>
-    <row r="96">
-      <c r="A96" t="s">
-        <v>77</v>
-      </c>
-      <c r="B96" t="s">
-        <v>45</v>
-      </c>
-      <c r="C96" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="D96"/>
-    </row>
-    <row r="97">
-      <c r="A97" t="s">
-        <v>78</v>
-      </c>
-      <c r="B97" t="s">
-        <v>45</v>
-      </c>
-      <c r="C97" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="D97"/>
-    </row>
-    <row r="98">
-      <c r="A98" t="s">
-        <v>79</v>
-      </c>
-      <c r="B98" t="s">
-        <v>45</v>
-      </c>
-      <c r="C98" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="D98"/>
-    </row>
-    <row r="99">
-      <c r="A99" t="s">
-        <v>77</v>
-      </c>
-      <c r="B99" t="s">
-        <v>55</v>
-      </c>
-      <c r="C99" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="D99"/>
-    </row>
-    <row r="100">
-      <c r="A100" t="s">
-        <v>77</v>
-      </c>
-      <c r="B100" t="s">
-        <v>56</v>
-      </c>
-      <c r="C100" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="D100"/>
+      <c r="D107">
+        <v>0.422421810747382</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B100"/>
   <sheetViews>
     <sheetView topLeftCell="A79" workbookViewId="0">
       <selection activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.625" hidden="0" customWidth="1"/>
-    <col min="2" max="2" width="81.75" hidden="0" customWidth="1"/>
+    <col min="1" max="1" width="58.625" customWidth="1"/>
+    <col min="2" max="2" width="81.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="8" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>97</v>
       </c>
@@ -2436,23 +2577,23 @@
         <v>157</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -2460,7 +2601,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>104</v>
       </c>
@@ -2468,7 +2609,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>98</v>
       </c>
@@ -2476,7 +2617,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>99</v>
       </c>
@@ -2484,7 +2625,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>100</v>
       </c>
@@ -2492,7 +2633,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>101</v>
       </c>
@@ -2500,7 +2641,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>102</v>
       </c>
@@ -2508,7 +2649,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -2516,39 +2657,39 @@
         <v>166</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>108</v>
       </c>
@@ -2556,47 +2697,47 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="6" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="6" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="6" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="6" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="6" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -2604,544 +2745,544 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="6" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="27" ht="31.5" customHeight="1">
-      <c r="A27" s="7" t="s">
+    <row r="27" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="6" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="7" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="6" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="7" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="6" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="2" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="7" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="6" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="7" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="6" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="7" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="6" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="35" ht="31.5" customHeight="1">
-      <c r="A35" s="7" t="s">
+    <row r="35" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="6" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="7" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="6" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="7" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="6" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="7" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="6" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="2" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="41" ht="31.5" customHeight="1">
-      <c r="A41" s="7" t="s">
+    <row r="41" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="6" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="7" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="6" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="7" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="6" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="7" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="6" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="7" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="6" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="7" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="6" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="7" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="6" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="7" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="6" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="49" ht="31.5" customHeight="1">
-      <c r="A49" s="7" t="s">
+    <row r="49" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="6" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="7" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="6" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="7" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="6" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="7" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="6" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="7" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="6" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="2" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="7" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="6" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="7" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="7" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="7" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="6" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="7" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="7" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="2" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="64" ht="31.5" customHeight="1">
-      <c r="A64" s="7" t="s">
+    <row r="64" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="6" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="7" t="s">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="6" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="7" t="s">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="6" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="7" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="6" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="7" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B68" s="6" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="7"/>
-      <c r="B69" s="7"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="2" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="6"/>
+      <c r="B69" s="6"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="71" ht="31.5" customHeight="1">
-      <c r="A71" s="7" t="s">
+    <row r="71" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B71" s="6" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="7" t="s">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B72" s="6" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="7" t="s">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B73" s="6" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="7"/>
-      <c r="B74" s="7"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="2" t="s">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="6"/>
+      <c r="B74" s="6"/>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="7" t="s">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="B76" s="6" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="7" t="s">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B77" s="7" t="s">
+      <c r="B77" s="6" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="7" t="s">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B78" s="7" t="s">
+      <c r="B78" s="6" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="2" t="s">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B80" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="81" ht="31.5" customHeight="1">
-      <c r="A81" s="7" t="s">
+    <row r="81" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B81" s="7" t="s">
+      <c r="B81" s="6" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="7" t="s">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="B82" s="7" t="s">
+      <c r="B82" s="6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="83" ht="31.5" customHeight="1">
-      <c r="A83" s="7" t="s">
+    <row r="83" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="B83" s="7" t="s">
+      <c r="B83" s="6" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="2" t="s">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B85" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="86" ht="31.5" customHeight="1">
-      <c r="A86" s="7" t="s">
+    <row r="86" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="B86" s="7" t="s">
+      <c r="B86" s="6" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="7" t="s">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="B87" s="7" t="s">
+      <c r="B87" s="6" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="7" t="s">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="B88" s="7" t="s">
+      <c r="B88" s="6" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="89" ht="31.5" customHeight="1">
-      <c r="A89" s="7" t="s">
+    <row r="89" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="B89" s="7" t="s">
+      <c r="B89" s="6" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="7" t="s">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="B90" s="7" t="s">
+      <c r="B90" s="6" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="7" t="s">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="B91" s="7" t="s">
+      <c r="B91" s="6" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="7" t="s">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="B92" s="7" t="s">
+      <c r="B92" s="6" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="7" t="s">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="B93" s="7" t="s">
+      <c r="B93" s="6" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="2" t="s">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="B95" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="7" t="s">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="B96" s="7" t="s">
+      <c r="B96" s="6" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="7" t="s">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="B97" s="7" t="s">
+      <c r="B97" s="6" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="7" t="s">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B98" s="7" t="s">
+      <c r="B98" s="6" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="7" t="s">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="B99" s="7" t="s">
+      <c r="B99" s="6" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="7" t="s">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="B100" s="7" t="s">
+      <c r="B100" s="6" t="s">
         <v>226</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>